--- a/raw_mat_bad_stock.xlsx
+++ b/raw_mat_bad_stock.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4411" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4427" uniqueCount="474">
   <si>
     <t>Склад лексырья</t>
   </si>
@@ -1442,6 +1442,9 @@
   </si>
   <si>
     <t>11.11.2022</t>
+  </si>
+  <si>
+    <t>17.11.2022</t>
   </si>
 </sst>
 </file>
@@ -1897,10 +1900,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N540"/>
+  <dimension ref="A1:N542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N540"/>
+      <selection sqref="A1:N542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14530,23 +14533,19 @@
       <c r="C313" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D313" s="3">
-        <v>1250920</v>
-      </c>
-      <c r="E313" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4"/>
       <c r="F313" s="3">
-        <v>210322</v>
+        <v>1051122</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H313" s="4" t="s">
-        <v>40</v>
+        <v>473</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="J313" s="3">
         <v>1</v>
@@ -14558,10 +14557,10 @@
         <v>3</v>
       </c>
       <c r="M313" s="8">
-        <v>9770.4</v>
+        <v>9586</v>
       </c>
       <c r="N313" s="7">
-        <v>2506080.27</v>
+        <v>1917200</v>
       </c>
     </row>
     <row r="314" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14574,23 +14573,19 @@
       <c r="C314" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D314" s="3">
-        <v>1240920</v>
-      </c>
-      <c r="E314" s="4" t="s">
-        <v>336</v>
-      </c>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4"/>
       <c r="F314" s="3">
-        <v>220322</v>
+        <v>1061122</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H314" s="4" t="s">
-        <v>40</v>
+        <v>473</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="J314" s="3">
         <v>1</v>
@@ -14602,10 +14597,10 @@
         <v>3</v>
       </c>
       <c r="M314" s="8">
-        <v>19994.900000000001</v>
+        <v>11409</v>
       </c>
       <c r="N314" s="7">
-        <v>5089256.87</v>
+        <v>1026810</v>
       </c>
     </row>
     <row r="315" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14619,16 +14614,16 @@
         <v>1</v>
       </c>
       <c r="D315" s="3">
-        <v>1471220</v>
+        <v>1250920</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="F315" s="3">
-        <v>230322</v>
+        <v>210322</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H315" s="4" t="s">
         <v>40</v>
@@ -14646,10 +14641,10 @@
         <v>3</v>
       </c>
       <c r="M315" s="8">
-        <v>1743</v>
+        <v>9770.4</v>
       </c>
       <c r="N315" s="7">
-        <v>433218.46</v>
+        <v>2506080.27</v>
       </c>
     </row>
     <row r="316" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14663,16 +14658,16 @@
         <v>1</v>
       </c>
       <c r="D316" s="3">
-        <v>760721</v>
+        <v>1240920</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F316" s="3">
-        <v>250322</v>
+        <v>220322</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H316" s="4" t="s">
         <v>40</v>
@@ -14690,10 +14685,10 @@
         <v>3</v>
       </c>
       <c r="M316" s="8">
-        <v>8844.5</v>
+        <v>19994.900000000001</v>
       </c>
       <c r="N316" s="7">
-        <v>2385778.9</v>
+        <v>5089256.87</v>
       </c>
     </row>
     <row r="317" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14707,22 +14702,22 @@
         <v>1</v>
       </c>
       <c r="D317" s="3">
-        <v>640621</v>
+        <v>1471220</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>338</v>
+        <v>214</v>
       </c>
       <c r="F317" s="3">
-        <v>330422</v>
+        <v>230322</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H317" s="4" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="J317" s="3">
         <v>1</v>
@@ -14734,10 +14729,10 @@
         <v>3</v>
       </c>
       <c r="M317" s="8">
-        <v>9998.1</v>
+        <v>1743</v>
       </c>
       <c r="N317" s="7">
-        <v>2651152.7999999998</v>
+        <v>433218.46</v>
       </c>
     </row>
     <row r="318" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14750,16 +14745,20 @@
       <c r="C318" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D318" s="4"/>
-      <c r="E318" s="4"/>
+      <c r="D318" s="3">
+        <v>760721</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="F318" s="3">
-        <v>350422</v>
+        <v>250322</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H318" s="4" t="s">
-        <v>339</v>
+        <v>40</v>
       </c>
       <c r="I318" s="5" t="s">
         <v>193</v>
@@ -14774,10 +14773,10 @@
         <v>3</v>
       </c>
       <c r="M318" s="8">
-        <v>9998.2999999999993</v>
+        <v>8844.5</v>
       </c>
       <c r="N318" s="7">
-        <v>2843136.95</v>
+        <v>2385778.9</v>
       </c>
     </row>
     <row r="319" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14790,19 +14789,23 @@
       <c r="C319" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
+      <c r="D319" s="3">
+        <v>640621</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="F319" s="3">
-        <v>360422</v>
+        <v>330422</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H319" s="4" t="s">
-        <v>339</v>
+        <v>107</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="J319" s="3">
         <v>1</v>
@@ -14817,7 +14820,7 @@
         <v>9998.1</v>
       </c>
       <c r="N319" s="7">
-        <v>2843077.89</v>
+        <v>2651152.7999999998</v>
       </c>
     </row>
     <row r="320" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14833,16 +14836,16 @@
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="3">
-        <v>380422</v>
+        <v>350422</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H320" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="J320" s="3">
         <v>1</v>
@@ -14854,10 +14857,10 @@
         <v>3</v>
       </c>
       <c r="M320" s="8">
-        <v>9998.4</v>
+        <v>9998.2999999999993</v>
       </c>
       <c r="N320" s="7">
-        <v>2241790.85</v>
+        <v>2843136.95</v>
       </c>
     </row>
     <row r="321" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14870,23 +14873,19 @@
       <c r="C321" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D321" s="3">
-        <v>720721</v>
-      </c>
-      <c r="E321" s="4" t="s">
-        <v>341</v>
-      </c>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4"/>
       <c r="F321" s="3">
-        <v>390522</v>
+        <v>360422</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H321" s="4" t="s">
-        <v>30</v>
+        <v>339</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J321" s="3">
         <v>1</v>
@@ -14898,10 +14897,10 @@
         <v>3</v>
       </c>
       <c r="M321" s="8">
-        <v>9998.2000000000007</v>
+        <v>9998.1</v>
       </c>
       <c r="N321" s="7">
-        <v>2730982.43</v>
+        <v>2843077.89</v>
       </c>
     </row>
     <row r="322" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14914,23 +14913,19 @@
       <c r="C322" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D322" s="3">
-        <v>790721</v>
-      </c>
-      <c r="E322" s="4" t="s">
-        <v>342</v>
-      </c>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4"/>
       <c r="F322" s="3">
-        <v>400522</v>
+        <v>380422</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H322" s="4" t="s">
-        <v>30</v>
+        <v>340</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J322" s="3">
         <v>1</v>
@@ -14942,10 +14937,10 @@
         <v>3</v>
       </c>
       <c r="M322" s="8">
-        <v>6002.8</v>
+        <v>9998.4</v>
       </c>
       <c r="N322" s="7">
-        <v>1500700</v>
+        <v>2241790.85</v>
       </c>
     </row>
     <row r="323" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14959,13 +14954,13 @@
         <v>1</v>
       </c>
       <c r="D323" s="3">
-        <v>830821</v>
+        <v>720721</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>68</v>
+        <v>341</v>
       </c>
       <c r="F323" s="3">
-        <v>410522</v>
+        <v>390522</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>16</v>
@@ -14986,10 +14981,10 @@
         <v>3</v>
       </c>
       <c r="M323" s="8">
-        <v>3185.8</v>
+        <v>9998.2000000000007</v>
       </c>
       <c r="N323" s="7">
-        <v>851313.55</v>
+        <v>2730982.43</v>
       </c>
     </row>
     <row r="324" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15003,16 +14998,16 @@
         <v>1</v>
       </c>
       <c r="D324" s="3">
-        <v>860821</v>
+        <v>790721</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F324" s="3">
-        <v>420522</v>
+        <v>400522</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H324" s="4" t="s">
         <v>30</v>
@@ -15030,10 +15025,10 @@
         <v>3</v>
       </c>
       <c r="M324" s="8">
-        <v>15395.5</v>
+        <v>6002.8</v>
       </c>
       <c r="N324" s="7">
-        <v>4117924.89</v>
+        <v>1500700</v>
       </c>
     </row>
     <row r="325" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15047,16 +15042,16 @@
         <v>1</v>
       </c>
       <c r="D325" s="3">
-        <v>890821</v>
+        <v>830821</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>344</v>
+        <v>68</v>
       </c>
       <c r="F325" s="3">
-        <v>430522</v>
+        <v>410522</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H325" s="4" t="s">
         <v>30</v>
@@ -15071,13 +15066,13 @@
         <v>2</v>
       </c>
       <c r="L325" s="4" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="M325" s="8">
-        <v>5857.5</v>
+        <v>3185.8</v>
       </c>
       <c r="N325" s="7">
-        <v>1580707.99</v>
+        <v>851313.55</v>
       </c>
     </row>
     <row r="326" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15091,13 +15086,13 @@
         <v>1</v>
       </c>
       <c r="D326" s="3">
-        <v>890821</v>
+        <v>860821</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F326" s="3">
-        <v>430522</v>
+        <v>420522</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>28</v>
@@ -15118,10 +15113,10 @@
         <v>3</v>
       </c>
       <c r="M326" s="8">
-        <v>7120</v>
+        <v>15395.5</v>
       </c>
       <c r="N326" s="7">
-        <v>1921406.89</v>
+        <v>4117924.89</v>
       </c>
     </row>
     <row r="327" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15135,13 +15130,13 @@
         <v>1</v>
       </c>
       <c r="D327" s="3">
-        <v>940821</v>
+        <v>890821</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F327" s="3">
-        <v>450522</v>
+        <v>430522</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>28</v>
@@ -15159,13 +15154,13 @@
         <v>2</v>
       </c>
       <c r="L327" s="4" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="M327" s="8">
-        <v>11632.3</v>
+        <v>5857.5</v>
       </c>
       <c r="N327" s="7">
-        <v>3083584.85</v>
+        <v>1580707.99</v>
       </c>
     </row>
     <row r="328" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15178,16 +15173,20 @@
       <c r="C328" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D328" s="4"/>
-      <c r="E328" s="4"/>
+      <c r="D328" s="3">
+        <v>890821</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="F328" s="3">
-        <v>470522</v>
+        <v>430522</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H328" s="4" t="s">
-        <v>346</v>
+        <v>30</v>
       </c>
       <c r="I328" s="5" t="s">
         <v>55</v>
@@ -15202,10 +15201,10 @@
         <v>3</v>
       </c>
       <c r="M328" s="8">
-        <v>9996.9</v>
+        <v>7120</v>
       </c>
       <c r="N328" s="7">
-        <v>2242929.1800000002</v>
+        <v>1921406.89</v>
       </c>
     </row>
     <row r="329" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15219,22 +15218,22 @@
         <v>1</v>
       </c>
       <c r="D329" s="3">
-        <v>1010921</v>
+        <v>940821</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="F329" s="3">
-        <v>480622</v>
+        <v>450522</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H329" s="4" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="I329" s="5" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="J329" s="3">
         <v>1</v>
@@ -15246,10 +15245,10 @@
         <v>3</v>
       </c>
       <c r="M329" s="8">
-        <v>10092.5</v>
+        <v>11632.3</v>
       </c>
       <c r="N329" s="7">
-        <v>2680146.4</v>
+        <v>3083584.85</v>
       </c>
     </row>
     <row r="330" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15262,23 +15261,19 @@
       <c r="C330" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D330" s="3">
-        <v>100122</v>
-      </c>
-      <c r="E330" s="4" t="s">
-        <v>347</v>
-      </c>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4"/>
       <c r="F330" s="3">
-        <v>500622</v>
+        <v>470522</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H330" s="4" t="s">
-        <v>145</v>
+        <v>346</v>
       </c>
       <c r="I330" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J330" s="3">
         <v>1</v>
@@ -15290,10 +15285,10 @@
         <v>3</v>
       </c>
       <c r="M330" s="8">
-        <v>9282.6</v>
+        <v>9996.9</v>
       </c>
       <c r="N330" s="7">
-        <v>2270672.42</v>
+        <v>2242929.1800000002</v>
       </c>
     </row>
     <row r="331" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15307,16 +15302,16 @@
         <v>1</v>
       </c>
       <c r="D331" s="3">
-        <v>280322</v>
+        <v>1010921</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="F331" s="3">
-        <v>510622</v>
+        <v>480622</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H331" s="4" t="s">
         <v>145</v>
@@ -15334,10 +15329,10 @@
         <v>3</v>
       </c>
       <c r="M331" s="8">
-        <v>7945.6</v>
+        <v>10092.5</v>
       </c>
       <c r="N331" s="7">
-        <v>2137839.02</v>
+        <v>2680146.4</v>
       </c>
     </row>
     <row r="332" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15350,19 +15345,23 @@
       <c r="C332" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D332" s="4"/>
-      <c r="E332" s="4"/>
+      <c r="D332" s="3">
+        <v>100122</v>
+      </c>
+      <c r="E332" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="F332" s="3">
-        <v>530622</v>
+        <v>500622</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H332" s="4" t="s">
-        <v>316</v>
+        <v>145</v>
       </c>
       <c r="I332" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J332" s="3">
         <v>1</v>
@@ -15374,10 +15373,10 @@
         <v>3</v>
       </c>
       <c r="M332" s="8">
-        <v>7992.1</v>
+        <v>9282.6</v>
       </c>
       <c r="N332" s="7">
-        <v>1391642.65</v>
+        <v>2270672.42</v>
       </c>
     </row>
     <row r="333" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15390,19 +15389,23 @@
       <c r="C333" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D333" s="4"/>
-      <c r="E333" s="4"/>
+      <c r="D333" s="3">
+        <v>280322</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="F333" s="3">
-        <v>540622</v>
+        <v>510622</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H333" s="4" t="s">
-        <v>303</v>
+        <v>145</v>
       </c>
       <c r="I333" s="5" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="J333" s="3">
         <v>1</v>
@@ -15414,10 +15417,10 @@
         <v>3</v>
       </c>
       <c r="M333" s="8">
-        <v>9998.2999999999993</v>
+        <v>7945.6</v>
       </c>
       <c r="N333" s="7">
-        <v>2329018.15</v>
+        <v>2137839.02</v>
       </c>
     </row>
     <row r="334" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15433,16 +15436,16 @@
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="3">
-        <v>550622</v>
+        <v>530622</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H334" s="4" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="I334" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J334" s="3">
         <v>1</v>
@@ -15454,10 +15457,10 @@
         <v>3</v>
       </c>
       <c r="M334" s="8">
-        <v>4998.5</v>
+        <v>7992.1</v>
       </c>
       <c r="N334" s="7">
-        <v>1164357.6599999999</v>
+        <v>1391642.65</v>
       </c>
     </row>
     <row r="335" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15473,16 +15476,16 @@
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="3">
-        <v>560722</v>
+        <v>540622</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H335" s="4" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="I335" s="5" t="s">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="J335" s="3">
         <v>1</v>
@@ -15491,13 +15494,13 @@
         <v>2</v>
       </c>
       <c r="L335" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M335" s="8">
-        <v>13804.4</v>
+        <v>9998.2999999999993</v>
       </c>
       <c r="N335" s="7">
-        <v>2760880</v>
+        <v>2329018.15</v>
       </c>
     </row>
     <row r="336" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15513,16 +15516,16 @@
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="3">
-        <v>570722</v>
+        <v>550622</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H336" s="4" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="I336" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J336" s="3">
         <v>1</v>
@@ -15534,10 +15537,10 @@
         <v>3</v>
       </c>
       <c r="M336" s="8">
-        <v>10998.4</v>
+        <v>4998.5</v>
       </c>
       <c r="N336" s="7">
-        <v>1932295.36</v>
+        <v>1164357.6599999999</v>
       </c>
     </row>
     <row r="337" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15550,23 +15553,19 @@
       <c r="C337" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D337" s="3">
-        <v>1061021</v>
-      </c>
-      <c r="E337" s="4" t="s">
-        <v>348</v>
-      </c>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
       <c r="F337" s="3">
-        <v>580722</v>
+        <v>560722</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H337" s="4" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="I337" s="5" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="J337" s="3">
         <v>1</v>
@@ -15575,13 +15574,13 @@
         <v>2</v>
       </c>
       <c r="L337" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M337" s="8">
-        <v>10110.5</v>
+        <v>13804.4</v>
       </c>
       <c r="N337" s="7">
-        <v>2627833.7200000002</v>
+        <v>2760880</v>
       </c>
     </row>
     <row r="338" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15594,23 +15593,19 @@
       <c r="C338" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D338" s="3">
-        <v>1071021</v>
-      </c>
-      <c r="E338" s="4" t="s">
-        <v>348</v>
-      </c>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4"/>
       <c r="F338" s="3">
-        <v>590722</v>
+        <v>570722</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H338" s="4" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="I338" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J338" s="3">
         <v>1</v>
@@ -15622,10 +15617,10 @@
         <v>3</v>
       </c>
       <c r="M338" s="8">
-        <v>9998.2999999999993</v>
+        <v>10998.4</v>
       </c>
       <c r="N338" s="7">
-        <v>2593115.79</v>
+        <v>1932295.36</v>
       </c>
     </row>
     <row r="339" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15639,16 +15634,16 @@
         <v>1</v>
       </c>
       <c r="D339" s="3">
-        <v>110122</v>
+        <v>1061021</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F339" s="3">
-        <v>600722</v>
+        <v>580722</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H339" s="4" t="s">
         <v>148</v>
@@ -15666,10 +15661,10 @@
         <v>3</v>
       </c>
       <c r="M339" s="8">
-        <v>6864.2</v>
+        <v>10110.5</v>
       </c>
       <c r="N339" s="7">
-        <v>1709136.34</v>
+        <v>2627833.7200000002</v>
       </c>
     </row>
     <row r="340" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15683,16 +15678,16 @@
         <v>1</v>
       </c>
       <c r="D340" s="3">
-        <v>270322</v>
+        <v>1071021</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="F340" s="3">
-        <v>610722</v>
+        <v>590722</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>148</v>
@@ -15710,10 +15705,10 @@
         <v>3</v>
       </c>
       <c r="M340" s="8">
-        <v>10997.6</v>
+        <v>9998.2999999999993</v>
       </c>
       <c r="N340" s="7">
-        <v>3340441.54</v>
+        <v>2593115.79</v>
       </c>
     </row>
     <row r="341" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15726,19 +15721,23 @@
       <c r="C341" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D341" s="4"/>
-      <c r="E341" s="4"/>
+      <c r="D341" s="3">
+        <v>110122</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="F341" s="3">
-        <v>620722</v>
+        <v>600722</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H341" s="4" t="s">
-        <v>409</v>
+        <v>148</v>
       </c>
       <c r="I341" s="5" t="s">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="J341" s="3">
         <v>1</v>
@@ -15750,10 +15749,10 @@
         <v>3</v>
       </c>
       <c r="M341" s="8">
-        <v>12371.9</v>
+        <v>6864.2</v>
       </c>
       <c r="N341" s="7">
-        <v>3525991.5</v>
+        <v>1709136.34</v>
       </c>
     </row>
     <row r="342" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15766,19 +15765,23 @@
       <c r="C342" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D342" s="4"/>
-      <c r="E342" s="4"/>
+      <c r="D342" s="3">
+        <v>270322</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="F342" s="3">
-        <v>630722</v>
+        <v>610722</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H342" s="4" t="s">
-        <v>398</v>
+        <v>148</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="J342" s="3">
         <v>1</v>
@@ -15787,13 +15790,13 @@
         <v>2</v>
       </c>
       <c r="L342" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M342" s="6">
-        <v>538.4</v>
+        <v>3</v>
+      </c>
+      <c r="M342" s="8">
+        <v>10997.6</v>
       </c>
       <c r="N342" s="7">
-        <v>107680</v>
+        <v>3340441.54</v>
       </c>
     </row>
     <row r="343" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15809,16 +15812,16 @@
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="3">
-        <v>640722</v>
+        <v>620722</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H343" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="J343" s="3">
         <v>1</v>
@@ -15830,10 +15833,10 @@
         <v>3</v>
       </c>
       <c r="M343" s="8">
-        <v>17548.5</v>
+        <v>12371.9</v>
       </c>
       <c r="N343" s="7">
-        <v>3150882.12</v>
+        <v>3525991.5</v>
       </c>
     </row>
     <row r="344" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15849,16 +15852,16 @@
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="3">
-        <v>650722</v>
+        <v>630722</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H344" s="4" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="J344" s="3">
         <v>1</v>
@@ -15867,13 +15870,13 @@
         <v>2</v>
       </c>
       <c r="L344" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M344" s="8">
-        <v>1438.4</v>
+        <v>155</v>
+      </c>
+      <c r="M344" s="6">
+        <v>538.4</v>
       </c>
       <c r="N344" s="7">
-        <v>273500.36</v>
+        <v>107680</v>
       </c>
     </row>
     <row r="345" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15889,16 +15892,16 @@
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="3">
-        <v>660722</v>
+        <v>640722</v>
       </c>
       <c r="G345" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H345" s="4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J345" s="3">
         <v>1</v>
@@ -15910,10 +15913,10 @@
         <v>3</v>
       </c>
       <c r="M345" s="8">
-        <v>11998.5</v>
+        <v>17548.5</v>
       </c>
       <c r="N345" s="7">
-        <v>2281419.7599999998</v>
+        <v>3150882.12</v>
       </c>
     </row>
     <row r="346" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15929,16 +15932,16 @@
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="3">
-        <v>670722</v>
+        <v>650722</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H346" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>260</v>
+        <v>33</v>
       </c>
       <c r="J346" s="3">
         <v>1</v>
@@ -15950,10 +15953,10 @@
         <v>3</v>
       </c>
       <c r="M346" s="8">
-        <v>9998.5</v>
+        <v>1438.4</v>
       </c>
       <c r="N346" s="7">
-        <v>2095158.87</v>
+        <v>273500.36</v>
       </c>
     </row>
     <row r="347" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15969,16 +15972,16 @@
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="3">
-        <v>680722</v>
+        <v>660722</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H347" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="J347" s="3">
         <v>1</v>
@@ -15990,10 +15993,10 @@
         <v>3</v>
       </c>
       <c r="M347" s="8">
-        <v>9998.5</v>
+        <v>11998.5</v>
       </c>
       <c r="N347" s="7">
-        <v>2095158.88</v>
+        <v>2281419.7599999998</v>
       </c>
     </row>
     <row r="348" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16009,16 +16012,16 @@
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="3">
-        <v>690722</v>
+        <v>670722</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H348" s="4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="J348" s="3">
         <v>1</v>
@@ -16027,13 +16030,13 @@
         <v>2</v>
       </c>
       <c r="L348" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M348" s="8">
-        <v>2698.5</v>
+        <v>9998.5</v>
       </c>
       <c r="N348" s="7">
-        <v>548673.75</v>
+        <v>2095158.87</v>
       </c>
     </row>
     <row r="349" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16049,13 +16052,13 @@
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="3">
-        <v>700722</v>
+        <v>680722</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H349" s="4" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="I349" s="5" t="s">
         <v>260</v>
@@ -16067,13 +16070,13 @@
         <v>2</v>
       </c>
       <c r="L349" s="4" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="M349" s="8">
-        <v>12410.2</v>
+        <v>9998.5</v>
       </c>
       <c r="N349" s="7">
-        <v>2482040</v>
+        <v>2095158.88</v>
       </c>
     </row>
     <row r="350" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16089,16 +16092,16 @@
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="3">
-        <v>710722</v>
+        <v>690722</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H350" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="J350" s="3">
         <v>1</v>
@@ -16107,13 +16110,13 @@
         <v>2</v>
       </c>
       <c r="L350" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M350" s="8">
-        <v>2359.6999999999998</v>
+        <v>2698.5</v>
       </c>
       <c r="N350" s="7">
-        <v>672514.5</v>
+        <v>548673.75</v>
       </c>
     </row>
     <row r="351" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16129,13 +16132,13 @@
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="3">
-        <v>720722</v>
+        <v>700722</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H351" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="I351" s="5" t="s">
         <v>260</v>
@@ -16147,13 +16150,13 @@
         <v>2</v>
       </c>
       <c r="L351" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M351" s="6">
-        <v>740.9</v>
+        <v>155</v>
+      </c>
+      <c r="M351" s="8">
+        <v>12410.2</v>
       </c>
       <c r="N351" s="7">
-        <v>211156.5</v>
+        <v>2482040</v>
       </c>
     </row>
     <row r="352" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16169,7 +16172,7 @@
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="3">
-        <v>730722</v>
+        <v>710722</v>
       </c>
       <c r="G352" s="2" t="s">
         <v>38</v>
@@ -16189,11 +16192,11 @@
       <c r="L352" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M352" s="6">
-        <v>935.6</v>
+      <c r="M352" s="8">
+        <v>2359.6999999999998</v>
       </c>
       <c r="N352" s="7">
-        <v>266646</v>
+        <v>672514.5</v>
       </c>
     </row>
     <row r="353" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16209,7 +16212,7 @@
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="3">
-        <v>740722</v>
+        <v>720722</v>
       </c>
       <c r="G353" s="2" t="s">
         <v>38</v>
@@ -16229,11 +16232,11 @@
       <c r="L353" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M353" s="8">
-        <v>3864.6</v>
+      <c r="M353" s="6">
+        <v>740.9</v>
       </c>
       <c r="N353" s="7">
-        <v>773855</v>
+        <v>211156.5</v>
       </c>
     </row>
     <row r="354" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16249,7 +16252,7 @@
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="3">
-        <v>750722</v>
+        <v>730722</v>
       </c>
       <c r="G354" s="2" t="s">
         <v>38</v>
@@ -16269,11 +16272,11 @@
       <c r="L354" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M354" s="8">
-        <v>5271.4</v>
+      <c r="M354" s="6">
+        <v>935.6</v>
       </c>
       <c r="N354" s="7">
-        <v>474426</v>
+        <v>266646</v>
       </c>
     </row>
     <row r="355" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16286,20 +16289,16 @@
       <c r="C355" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D355" s="3">
-        <v>1081021</v>
-      </c>
-      <c r="E355" s="4" t="s">
-        <v>276</v>
-      </c>
+      <c r="D355" s="4"/>
+      <c r="E355" s="4"/>
       <c r="F355" s="3">
-        <v>790822</v>
+        <v>740722</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H355" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I355" s="5" t="s">
         <v>260</v>
@@ -16314,10 +16313,10 @@
         <v>3</v>
       </c>
       <c r="M355" s="8">
-        <v>9997.5</v>
+        <v>3864.6</v>
       </c>
       <c r="N355" s="7">
-        <v>2606113.11</v>
+        <v>773855</v>
       </c>
     </row>
     <row r="356" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16330,20 +16329,16 @@
       <c r="C356" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D356" s="3">
-        <v>1091121</v>
-      </c>
-      <c r="E356" s="4" t="s">
-        <v>334</v>
-      </c>
+      <c r="D356" s="4"/>
+      <c r="E356" s="4"/>
       <c r="F356" s="3">
-        <v>800822</v>
+        <v>750722</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H356" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I356" s="5" t="s">
         <v>260</v>
@@ -16358,10 +16353,10 @@
         <v>3</v>
       </c>
       <c r="M356" s="8">
-        <v>9998</v>
+        <v>5271.4</v>
       </c>
       <c r="N356" s="7">
-        <v>2634445.88</v>
+        <v>474426</v>
       </c>
     </row>
     <row r="357" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16374,16 +16369,20 @@
       <c r="C357" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D357" s="4"/>
-      <c r="E357" s="4"/>
+      <c r="D357" s="3">
+        <v>1081021</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="F357" s="3">
-        <v>820822</v>
+        <v>790822</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H357" s="4" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="I357" s="5" t="s">
         <v>260</v>
@@ -16395,13 +16394,13 @@
         <v>2</v>
       </c>
       <c r="L357" s="4" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="M357" s="8">
-        <v>4362.7</v>
+        <v>9997.5</v>
       </c>
       <c r="N357" s="7">
-        <v>844618.72</v>
+        <v>2606113.11</v>
       </c>
     </row>
     <row r="358" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16414,16 +16413,20 @@
       <c r="C358" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D358" s="4"/>
-      <c r="E358" s="4"/>
+      <c r="D358" s="3">
+        <v>1091121</v>
+      </c>
+      <c r="E358" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="F358" s="3">
-        <v>840822</v>
+        <v>800822</v>
       </c>
       <c r="G358" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H358" s="4" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="I358" s="5" t="s">
         <v>260</v>
@@ -16438,10 +16441,10 @@
         <v>3</v>
       </c>
       <c r="M358" s="8">
-        <v>9998.5</v>
+        <v>9998</v>
       </c>
       <c r="N358" s="7">
-        <v>2245345.59</v>
+        <v>2634445.88</v>
       </c>
     </row>
     <row r="359" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16457,16 +16460,16 @@
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="3">
-        <v>850822</v>
+        <v>820822</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H359" s="4" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="J359" s="3">
         <v>1</v>
@@ -16478,10 +16481,10 @@
         <v>155</v>
       </c>
       <c r="M359" s="8">
-        <v>9998.5</v>
+        <v>4362.7</v>
       </c>
       <c r="N359" s="7">
-        <v>2182814.0299999998</v>
+        <v>844618.72</v>
       </c>
     </row>
     <row r="360" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16497,16 +16500,16 @@
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="3">
-        <v>860822</v>
+        <v>840822</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H360" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="J360" s="3">
         <v>1</v>
@@ -16518,10 +16521,10 @@
         <v>3</v>
       </c>
       <c r="M360" s="8">
-        <v>2613.4</v>
+        <v>9998.5</v>
       </c>
       <c r="N360" s="7">
-        <v>535277.61</v>
+        <v>2245345.59</v>
       </c>
     </row>
     <row r="361" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16537,16 +16540,16 @@
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="3">
-        <v>870822</v>
+        <v>850822</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H361" s="4" t="s">
         <v>433</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="J361" s="3">
         <v>1</v>
@@ -16555,13 +16558,13 @@
         <v>2</v>
       </c>
       <c r="L361" s="4" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="M361" s="8">
-        <v>11960.6</v>
+        <v>9998.5</v>
       </c>
       <c r="N361" s="7">
-        <v>2392120</v>
+        <v>2182814.0299999998</v>
       </c>
     </row>
     <row r="362" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16577,16 +16580,16 @@
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="3">
-        <v>880822</v>
+        <v>860822</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H362" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>260</v>
+        <v>33</v>
       </c>
       <c r="J362" s="3">
         <v>1</v>
@@ -16598,10 +16601,10 @@
         <v>3</v>
       </c>
       <c r="M362" s="8">
-        <v>4609</v>
+        <v>2613.4</v>
       </c>
       <c r="N362" s="7">
-        <v>414810</v>
+        <v>535277.61</v>
       </c>
     </row>
     <row r="363" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16617,16 +16620,16 @@
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="F363" s="3">
-        <v>890822</v>
+        <v>870822</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H363" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="J363" s="3">
         <v>1</v>
@@ -16638,10 +16641,10 @@
         <v>3</v>
       </c>
       <c r="M363" s="8">
-        <v>4558.3</v>
+        <v>11960.6</v>
       </c>
       <c r="N363" s="7">
-        <v>931521.09</v>
+        <v>2392120</v>
       </c>
     </row>
     <row r="364" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16657,16 +16660,16 @@
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="3">
-        <v>900822</v>
+        <v>880822</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H364" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="J364" s="3">
         <v>1</v>
@@ -16678,10 +16681,10 @@
         <v>3</v>
       </c>
       <c r="M364" s="8">
-        <v>1352.4</v>
+        <v>4609</v>
       </c>
       <c r="N364" s="7">
-        <v>276372.57</v>
+        <v>414810</v>
       </c>
     </row>
     <row r="365" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16697,7 +16700,7 @@
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="3">
-        <v>910822</v>
+        <v>890822</v>
       </c>
       <c r="G365" s="2" t="s">
         <v>57</v>
@@ -16706,7 +16709,7 @@
         <v>435</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J365" s="3">
         <v>1</v>
@@ -16718,10 +16721,10 @@
         <v>3</v>
       </c>
       <c r="M365" s="8">
-        <v>4678.3</v>
+        <v>4558.3</v>
       </c>
       <c r="N365" s="7">
-        <v>956043.95</v>
+        <v>931521.09</v>
       </c>
     </row>
     <row r="366" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16737,13 +16740,13 @@
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
       <c r="F366" s="3">
-        <v>920822</v>
+        <v>900822</v>
       </c>
       <c r="G366" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H366" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="I366" s="5" t="s">
         <v>13</v>
@@ -16758,10 +16761,10 @@
         <v>3</v>
       </c>
       <c r="M366" s="8">
-        <v>10542.5</v>
+        <v>1352.4</v>
       </c>
       <c r="N366" s="7">
-        <v>2138754.25</v>
+        <v>276372.57</v>
       </c>
     </row>
     <row r="367" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16777,16 +16780,16 @@
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
       <c r="F367" s="3">
-        <v>930922</v>
+        <v>910822</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H367" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="J367" s="3">
         <v>1</v>
@@ -16798,10 +16801,10 @@
         <v>3</v>
       </c>
       <c r="M367" s="8">
-        <v>9877.6</v>
+        <v>4678.3</v>
       </c>
       <c r="N367" s="7">
-        <v>1975520</v>
+        <v>956043.95</v>
       </c>
     </row>
     <row r="368" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16817,16 +16820,16 @@
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="3">
-        <v>940922</v>
+        <v>920822</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H368" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="J368" s="3">
         <v>1</v>
@@ -16838,10 +16841,10 @@
         <v>3</v>
       </c>
       <c r="M368" s="8">
-        <v>2214.6999999999998</v>
+        <v>10542.5</v>
       </c>
       <c r="N368" s="7">
-        <v>199323</v>
+        <v>2138754.25</v>
       </c>
     </row>
     <row r="369" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16854,23 +16857,19 @@
       <c r="C369" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D369" s="3">
-        <v>1121121</v>
-      </c>
-      <c r="E369" s="4" t="s">
-        <v>254</v>
-      </c>
+      <c r="D369" s="4"/>
+      <c r="E369" s="4"/>
       <c r="F369" s="3">
-        <v>950922</v>
+        <v>930922</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H369" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="J369" s="3">
         <v>1</v>
@@ -16882,10 +16881,10 @@
         <v>3</v>
       </c>
       <c r="M369" s="8">
-        <v>9998.6</v>
+        <v>9877.6</v>
       </c>
       <c r="N369" s="7">
-        <v>2744567.86</v>
+        <v>1975520</v>
       </c>
     </row>
     <row r="370" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16898,23 +16897,19 @@
       <c r="C370" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D370" s="3">
-        <v>1181221</v>
-      </c>
-      <c r="E370" s="4" t="s">
-        <v>224</v>
-      </c>
+      <c r="D370" s="4"/>
+      <c r="E370" s="4"/>
       <c r="F370" s="3">
-        <v>960922</v>
+        <v>940922</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H370" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="J370" s="3">
         <v>1</v>
@@ -16926,10 +16921,10 @@
         <v>3</v>
       </c>
       <c r="M370" s="8">
-        <v>9998.5</v>
+        <v>2214.6999999999998</v>
       </c>
       <c r="N370" s="7">
-        <v>2684735.37</v>
+        <v>199323</v>
       </c>
     </row>
     <row r="371" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16942,19 +16937,23 @@
       <c r="C371" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D371" s="4"/>
-      <c r="E371" s="4"/>
+      <c r="D371" s="3">
+        <v>1121121</v>
+      </c>
+      <c r="E371" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="F371" s="3">
-        <v>970922</v>
+        <v>950922</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H371" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="J371" s="3">
         <v>1</v>
@@ -16966,10 +16965,10 @@
         <v>3</v>
       </c>
       <c r="M371" s="8">
-        <v>7357.8</v>
+        <v>9998.6</v>
       </c>
       <c r="N371" s="7">
-        <v>1471560</v>
+        <v>2744567.86</v>
       </c>
     </row>
     <row r="372" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16982,16 +16981,20 @@
       <c r="C372" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D372" s="4"/>
-      <c r="E372" s="4"/>
+      <c r="D372" s="3">
+        <v>1181221</v>
+      </c>
+      <c r="E372" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="F372" s="3">
-        <v>980922</v>
+        <v>960922</v>
       </c>
       <c r="G372" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H372" s="4" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="I372" s="5" t="s">
         <v>24</v>
@@ -17006,10 +17009,10 @@
         <v>3</v>
       </c>
       <c r="M372" s="8">
-        <v>9998.4</v>
+        <v>9998.5</v>
       </c>
       <c r="N372" s="7">
-        <v>2279941.0299999998</v>
+        <v>2684735.37</v>
       </c>
     </row>
     <row r="373" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17025,13 +17028,13 @@
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
       <c r="F373" s="3">
-        <v>991022</v>
+        <v>970922</v>
       </c>
       <c r="G373" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H373" s="4" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="I373" s="5" t="s">
         <v>260</v>
@@ -17046,15 +17049,15 @@
         <v>3</v>
       </c>
       <c r="M373" s="8">
-        <v>13186.2</v>
+        <v>7357.8</v>
       </c>
       <c r="N373" s="7">
-        <v>2637240</v>
+        <v>1471560</v>
       </c>
     </row>
     <row r="374" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>0</v>
@@ -17062,26 +17065,22 @@
       <c r="C374" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D374" s="3">
-        <v>20220</v>
-      </c>
-      <c r="E374" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="D374" s="4"/>
+      <c r="E374" s="4"/>
       <c r="F374" s="3">
-        <v>10821</v>
+        <v>980922</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="H374" s="4" t="s">
-        <v>68</v>
+        <v>448</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J374" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K374" s="4" t="s">
         <v>2</v>
@@ -17089,16 +17088,16 @@
       <c r="L374" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M374" s="6">
-        <v>905.6</v>
+      <c r="M374" s="8">
+        <v>9998.4</v>
       </c>
       <c r="N374" s="7">
-        <v>163008</v>
+        <v>2279941.0299999998</v>
       </c>
     </row>
     <row r="375" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>0</v>
@@ -17106,26 +17105,22 @@
       <c r="C375" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D375" s="3">
-        <v>51220</v>
-      </c>
-      <c r="E375" s="4" t="s">
-        <v>349</v>
-      </c>
+      <c r="D375" s="4"/>
+      <c r="E375" s="4"/>
       <c r="F375" s="3">
-        <v>10822</v>
+        <v>991022</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H375" s="4" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="J375" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K375" s="4" t="s">
         <v>2</v>
@@ -17134,10 +17129,10 @@
         <v>3</v>
       </c>
       <c r="M375" s="8">
-        <v>1595.4</v>
+        <v>13186.2</v>
       </c>
       <c r="N375" s="7">
-        <v>398850</v>
+        <v>2637240</v>
       </c>
     </row>
     <row r="376" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17151,19 +17146,19 @@
         <v>1</v>
       </c>
       <c r="D376" s="3">
-        <v>10116</v>
+        <v>20220</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F376" s="3">
-        <v>20921</v>
+        <v>10821</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="H376" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I376" s="5" t="s">
         <v>13</v>
@@ -17175,18 +17170,18 @@
         <v>2</v>
       </c>
       <c r="L376" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M376" s="8">
-        <v>1262.5999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="M376" s="6">
+        <v>905.6</v>
       </c>
       <c r="N376" s="7">
-        <v>127115.98</v>
+        <v>163008</v>
       </c>
     </row>
     <row r="377" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>0</v>
@@ -17194,22 +17189,26 @@
       <c r="C377" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D377" s="4"/>
-      <c r="E377" s="4"/>
+      <c r="D377" s="3">
+        <v>51220</v>
+      </c>
+      <c r="E377" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="F377" s="3">
-        <v>10221</v>
+        <v>10822</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="H377" s="4" t="s">
-        <v>235</v>
+        <v>404</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="J377" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K377" s="4" t="s">
         <v>2</v>
@@ -17218,15 +17217,15 @@
         <v>3</v>
       </c>
       <c r="M377" s="8">
-        <v>16436.2</v>
+        <v>1595.4</v>
       </c>
       <c r="N377" s="7">
-        <v>1965945.21</v>
+        <v>398850</v>
       </c>
     </row>
     <row r="378" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>0</v>
@@ -17234,22 +17233,26 @@
       <c r="C378" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D378" s="4"/>
-      <c r="E378" s="4"/>
+      <c r="D378" s="3">
+        <v>10116</v>
+      </c>
+      <c r="E378" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="F378" s="3">
-        <v>20221</v>
+        <v>20921</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="H378" s="4" t="s">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="J378" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K378" s="4" t="s">
         <v>2</v>
@@ -17258,10 +17261,10 @@
         <v>8</v>
       </c>
       <c r="M378" s="8">
-        <v>12630.8</v>
+        <v>1262.5999999999999</v>
       </c>
       <c r="N378" s="7">
-        <v>1503665.66</v>
+        <v>127115.98</v>
       </c>
     </row>
     <row r="379" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17277,13 +17280,13 @@
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" s="3">
-        <v>20221</v>
+        <v>10221</v>
       </c>
       <c r="G379" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H379" s="4" t="s">
-        <v>350</v>
+        <v>235</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>215</v>
@@ -17298,10 +17301,10 @@
         <v>3</v>
       </c>
       <c r="M379" s="8">
-        <v>2315.5</v>
+        <v>16436.2</v>
       </c>
       <c r="N379" s="7">
-        <v>275654.58</v>
+        <v>1965945.21</v>
       </c>
     </row>
     <row r="380" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17317,13 +17320,13 @@
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" s="3">
-        <v>30321</v>
+        <v>20221</v>
       </c>
       <c r="G380" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H380" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>215</v>
@@ -17335,13 +17338,13 @@
         <v>2</v>
       </c>
       <c r="L380" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M380" s="8">
-        <v>16997.3</v>
+        <v>12630.8</v>
       </c>
       <c r="N380" s="7">
-        <v>2028862.39</v>
+        <v>1503665.66</v>
       </c>
     </row>
     <row r="381" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17357,13 +17360,13 @@
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="F381" s="3">
-        <v>40321</v>
+        <v>20221</v>
       </c>
       <c r="G381" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H381" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I381" s="5" t="s">
         <v>215</v>
@@ -17375,13 +17378,13 @@
         <v>2</v>
       </c>
       <c r="L381" s="4" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="M381" s="8">
-        <v>7996.3</v>
+        <v>2315.5</v>
       </c>
       <c r="N381" s="7">
-        <v>952726.41</v>
+        <v>275654.58</v>
       </c>
     </row>
     <row r="382" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17397,13 +17400,13 @@
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="F382" s="3">
-        <v>50921</v>
+        <v>30321</v>
       </c>
       <c r="G382" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H382" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I382" s="5" t="s">
         <v>215</v>
@@ -17418,10 +17421,10 @@
         <v>3</v>
       </c>
       <c r="M382" s="8">
-        <v>2078.5</v>
+        <v>16997.3</v>
       </c>
       <c r="N382" s="7">
-        <v>214513.76</v>
+        <v>2028862.39</v>
       </c>
     </row>
     <row r="383" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17437,16 +17440,16 @@
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="F383" s="3">
-        <v>61121</v>
+        <v>40321</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="H383" s="4" t="s">
-        <v>254</v>
+        <v>352</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="J383" s="3">
         <v>3</v>
@@ -17455,13 +17458,13 @@
         <v>2</v>
       </c>
       <c r="L383" s="4" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="M383" s="8">
-        <v>8997.9</v>
+        <v>7996.3</v>
       </c>
       <c r="N383" s="7">
-        <v>1274702.5</v>
+        <v>952726.41</v>
       </c>
     </row>
     <row r="384" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17477,16 +17480,16 @@
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="F384" s="3">
-        <v>61121</v>
+        <v>50921</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="H384" s="4" t="s">
-        <v>254</v>
+        <v>353</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="J384" s="3">
         <v>3</v>
@@ -17498,15 +17501,15 @@
         <v>3</v>
       </c>
       <c r="M384" s="8">
-        <v>12146</v>
+        <v>2078.5</v>
       </c>
       <c r="N384" s="7">
-        <v>1724554.94</v>
+        <v>214513.76</v>
       </c>
     </row>
     <row r="385" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>354</v>
+        <v>112</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>0</v>
@@ -17517,16 +17520,16 @@
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="F385" s="3">
-        <v>10122</v>
+        <v>61121</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="H385" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="J385" s="3">
         <v>3</v>
@@ -17535,18 +17538,18 @@
         <v>2</v>
       </c>
       <c r="L385" s="4" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="M385" s="8">
-        <v>20193</v>
+        <v>8997.9</v>
       </c>
       <c r="N385" s="7">
-        <v>1591410.33</v>
+        <v>1274702.5</v>
       </c>
     </row>
     <row r="386" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>354</v>
+        <v>112</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>0</v>
@@ -17557,16 +17560,16 @@
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="3">
-        <v>40322</v>
+        <v>61121</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="H386" s="4" t="s">
-        <v>356</v>
+        <v>254</v>
       </c>
       <c r="I386" s="5" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="J386" s="3">
         <v>3</v>
@@ -17578,10 +17581,10 @@
         <v>3</v>
       </c>
       <c r="M386" s="8">
-        <v>19979.7</v>
+        <v>12146</v>
       </c>
       <c r="N386" s="7">
-        <v>1584390.21</v>
+        <v>1724554.94</v>
       </c>
     </row>
     <row r="387" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17597,16 +17600,16 @@
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="3">
-        <v>40721</v>
+        <v>10122</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>166</v>
+        <v>355</v>
       </c>
       <c r="H387" s="4" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="I387" s="5" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="J387" s="3">
         <v>3</v>
@@ -17615,13 +17618,13 @@
         <v>2</v>
       </c>
       <c r="L387" s="4" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="M387" s="8">
-        <v>4835.3999999999996</v>
+        <v>20193</v>
       </c>
       <c r="N387" s="7">
-        <v>372519.22</v>
+        <v>1591410.33</v>
       </c>
     </row>
     <row r="388" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17637,13 +17640,13 @@
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="3">
-        <v>50622</v>
+        <v>40322</v>
       </c>
       <c r="G388" s="2" t="s">
         <v>355</v>
       </c>
       <c r="H388" s="4" t="s">
-        <v>145</v>
+        <v>356</v>
       </c>
       <c r="I388" s="5" t="s">
         <v>176</v>
@@ -17658,10 +17661,10 @@
         <v>3</v>
       </c>
       <c r="M388" s="8">
-        <v>9004.6</v>
+        <v>19979.7</v>
       </c>
       <c r="N388" s="7">
-        <v>714064.78</v>
+        <v>1584390.21</v>
       </c>
     </row>
     <row r="389" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17677,16 +17680,16 @@
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="3">
-        <v>60722</v>
+        <v>40721</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>355</v>
+        <v>166</v>
       </c>
       <c r="H389" s="4" t="s">
-        <v>412</v>
+        <v>167</v>
       </c>
       <c r="I389" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J389" s="3">
         <v>3</v>
@@ -17698,10 +17701,10 @@
         <v>8</v>
       </c>
       <c r="M389" s="8">
-        <v>19725.900000000001</v>
+        <v>4835.3999999999996</v>
       </c>
       <c r="N389" s="7">
-        <v>1564263.87</v>
+        <v>372519.22</v>
       </c>
     </row>
     <row r="390" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17717,16 +17720,16 @@
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="3">
-        <v>70722</v>
+        <v>50622</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="H390" s="4" t="s">
-        <v>411</v>
+        <v>145</v>
       </c>
       <c r="I390" s="5" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="J390" s="3">
         <v>3</v>
@@ -17735,13 +17738,13 @@
         <v>2</v>
       </c>
       <c r="L390" s="4" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="M390" s="8">
-        <v>14805.4</v>
+        <v>9004.6</v>
       </c>
       <c r="N390" s="7">
-        <v>816764.56</v>
+        <v>714064.78</v>
       </c>
     </row>
     <row r="391" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17757,16 +17760,16 @@
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="3">
-        <v>81022</v>
+        <v>60722</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="H391" s="4" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="I391" s="5" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="J391" s="3">
         <v>3</v>
@@ -17775,18 +17778,18 @@
         <v>2</v>
       </c>
       <c r="L391" s="4" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="M391" s="8">
-        <v>4992.1000000000004</v>
+        <v>19725.900000000001</v>
       </c>
       <c r="N391" s="7">
-        <v>275397.51</v>
+        <v>1564263.87</v>
       </c>
     </row>
     <row r="392" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>147</v>
+        <v>354</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>0</v>
@@ -17796,37 +17799,37 @@
       </c>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
-      <c r="F392" s="9">
-        <v>31221</v>
+      <c r="F392" s="3">
+        <v>70722</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>28</v>
+        <v>413</v>
       </c>
       <c r="H392" s="4" t="s">
-        <v>255</v>
+        <v>411</v>
       </c>
       <c r="I392" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J392" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K392" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L392" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M392" s="6">
-        <v>245.7</v>
+        <v>155</v>
+      </c>
+      <c r="M392" s="8">
+        <v>14805.4</v>
       </c>
       <c r="N392" s="7">
-        <v>48708.75</v>
+        <v>816764.56</v>
       </c>
     </row>
     <row r="393" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>113</v>
+        <v>354</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>0</v>
@@ -17834,20 +17837,16 @@
       <c r="C393" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D393" s="3">
-        <v>10917</v>
-      </c>
-      <c r="E393" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="D393" s="4"/>
+      <c r="E393" s="4"/>
       <c r="F393" s="3">
-        <v>10722</v>
+        <v>81022</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>28</v>
+        <v>413</v>
       </c>
       <c r="H393" s="4" t="s">
-        <v>148</v>
+        <v>462</v>
       </c>
       <c r="I393" s="5" t="s">
         <v>22</v>
@@ -17859,18 +17858,18 @@
         <v>2</v>
       </c>
       <c r="L393" s="4" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="M393" s="8">
-        <v>1092.5</v>
+        <v>4992.1000000000004</v>
       </c>
       <c r="N393" s="7">
-        <v>226626.66</v>
+        <v>275397.51</v>
       </c>
     </row>
     <row r="394" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>0</v>
@@ -17878,26 +17877,22 @@
       <c r="C394" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D394" s="3">
-        <v>10318</v>
-      </c>
-      <c r="E394" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F394" s="3">
-        <v>21020</v>
+      <c r="D394" s="4"/>
+      <c r="E394" s="4"/>
+      <c r="F394" s="9">
+        <v>31221</v>
       </c>
       <c r="G394" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H394" s="4" t="s">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c r="I394" s="5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J394" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K394" s="4" t="s">
         <v>2</v>
@@ -17905,16 +17900,16 @@
       <c r="L394" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M394" s="8">
-        <v>5997.2</v>
+      <c r="M394" s="6">
+        <v>245.7</v>
       </c>
       <c r="N394" s="7">
-        <v>1177237.2</v>
+        <v>48708.75</v>
       </c>
     </row>
     <row r="395" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>0</v>
@@ -17922,22 +17917,26 @@
       <c r="C395" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D395" s="4"/>
-      <c r="E395" s="4"/>
+      <c r="D395" s="3">
+        <v>10917</v>
+      </c>
+      <c r="E395" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F395" s="3">
-        <v>20322</v>
+        <v>10722</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H395" s="4" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>357</v>
+        <v>22</v>
       </c>
       <c r="J395" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K395" s="4" t="s">
         <v>2</v>
@@ -17945,16 +17944,16 @@
       <c r="L395" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M395" s="6">
-        <v>210.3</v>
+      <c r="M395" s="8">
+        <v>1092.5</v>
       </c>
       <c r="N395" s="7">
-        <v>63090</v>
+        <v>226626.66</v>
       </c>
     </row>
     <row r="396" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>0</v>
@@ -17962,34 +17961,38 @@
       <c r="C396" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D396" s="4"/>
-      <c r="E396" s="4"/>
+      <c r="D396" s="3">
+        <v>10318</v>
+      </c>
+      <c r="E396" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F396" s="3">
-        <v>30422</v>
+        <v>21020</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H396" s="4" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>357</v>
+        <v>4</v>
       </c>
       <c r="J396" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K396" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L396" s="4" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="M396" s="8">
-        <v>6627.2</v>
+        <v>5997.2</v>
       </c>
       <c r="N396" s="7">
-        <v>1988160</v>
+        <v>1177237.2</v>
       </c>
     </row>
     <row r="397" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18005,16 +18008,16 @@
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="3">
-        <v>40722</v>
+        <v>20322</v>
       </c>
       <c r="G397" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H397" s="4" t="s">
-        <v>398</v>
+        <v>195</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="J397" s="3">
         <v>5</v>
@@ -18023,13 +18026,13 @@
         <v>2</v>
       </c>
       <c r="L397" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M397" s="8">
-        <v>6978.5</v>
+        <v>3</v>
+      </c>
+      <c r="M397" s="6">
+        <v>210.3</v>
       </c>
       <c r="N397" s="7">
-        <v>2093550</v>
+        <v>63090</v>
       </c>
     </row>
     <row r="398" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18045,16 +18048,16 @@
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="3">
-        <v>50822</v>
+        <v>30422</v>
       </c>
       <c r="G398" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H398" s="4" t="s">
-        <v>399</v>
+        <v>180</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="J398" s="3">
         <v>5</v>
@@ -18066,10 +18069,10 @@
         <v>155</v>
       </c>
       <c r="M398" s="8">
-        <v>5248</v>
+        <v>6627.2</v>
       </c>
       <c r="N398" s="7">
-        <v>1574400</v>
+        <v>1988160</v>
       </c>
     </row>
     <row r="399" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18085,16 +18088,16 @@
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="3">
-        <v>60821</v>
+        <v>40722</v>
       </c>
       <c r="G399" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H399" s="4" t="s">
-        <v>160</v>
+        <v>398</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="J399" s="3">
         <v>5</v>
@@ -18106,10 +18109,10 @@
         <v>155</v>
       </c>
       <c r="M399" s="8">
-        <v>5528.6</v>
+        <v>6978.5</v>
       </c>
       <c r="N399" s="7">
-        <v>1492722</v>
+        <v>2093550</v>
       </c>
     </row>
     <row r="400" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18125,13 +18128,13 @@
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="3">
-        <v>60822</v>
+        <v>50822</v>
       </c>
       <c r="G400" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H400" s="4" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="I400" s="5" t="s">
         <v>414</v>
@@ -18143,13 +18146,13 @@
         <v>2</v>
       </c>
       <c r="L400" s="4" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="M400" s="8">
-        <v>6163</v>
+        <v>5248</v>
       </c>
       <c r="N400" s="7">
-        <v>1848900</v>
+        <v>1574400</v>
       </c>
     </row>
     <row r="401" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18165,13 +18168,13 @@
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="3">
-        <v>70921</v>
+        <v>60821</v>
       </c>
       <c r="G401" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H401" s="4" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="I401" s="5" t="s">
         <v>357</v>
@@ -18183,13 +18186,13 @@
         <v>2</v>
       </c>
       <c r="L401" s="4" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="M401" s="8">
-        <v>5068.3999999999996</v>
+        <v>5528.6</v>
       </c>
       <c r="N401" s="7">
-        <v>1368468</v>
+        <v>1492722</v>
       </c>
     </row>
     <row r="402" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18205,13 +18208,13 @@
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="3">
-        <v>70922</v>
+        <v>60822</v>
       </c>
       <c r="G402" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H402" s="4" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="I402" s="5" t="s">
         <v>414</v>
@@ -18226,10 +18229,10 @@
         <v>8</v>
       </c>
       <c r="M402" s="8">
-        <v>5743.8</v>
+        <v>6163</v>
       </c>
       <c r="N402" s="7">
-        <v>1723140</v>
+        <v>1848900</v>
       </c>
     </row>
     <row r="403" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18245,13 +18248,13 @@
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="3">
-        <v>80921</v>
+        <v>70921</v>
       </c>
       <c r="G403" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H403" s="4" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="I403" s="5" t="s">
         <v>357</v>
@@ -18266,10 +18269,10 @@
         <v>8</v>
       </c>
       <c r="M403" s="8">
-        <v>5036.3999999999996</v>
+        <v>5068.3999999999996</v>
       </c>
       <c r="N403" s="7">
-        <v>1359828</v>
+        <v>1368468</v>
       </c>
     </row>
     <row r="404" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18285,13 +18288,13 @@
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="3">
-        <v>81022</v>
+        <v>70922</v>
       </c>
       <c r="G404" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H404" s="4" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="I404" s="5" t="s">
         <v>414</v>
@@ -18306,10 +18309,10 @@
         <v>8</v>
       </c>
       <c r="M404" s="8">
-        <v>5788.4</v>
+        <v>5743.8</v>
       </c>
       <c r="N404" s="7">
-        <v>1736520</v>
+        <v>1723140</v>
       </c>
     </row>
     <row r="405" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18325,13 +18328,13 @@
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="3">
-        <v>91021</v>
+        <v>80921</v>
       </c>
       <c r="G405" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H405" s="4" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="I405" s="5" t="s">
         <v>357</v>
@@ -18346,10 +18349,10 @@
         <v>8</v>
       </c>
       <c r="M405" s="8">
-        <v>8008</v>
+        <v>5036.3999999999996</v>
       </c>
       <c r="N405" s="7">
-        <v>2242240</v>
+        <v>1359828</v>
       </c>
     </row>
     <row r="406" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18365,13 +18368,13 @@
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="3">
-        <v>91122</v>
+        <v>81022</v>
       </c>
       <c r="G406" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H406" s="4" t="s">
-        <v>39</v>
+        <v>450</v>
       </c>
       <c r="I406" s="5" t="s">
         <v>414</v>
@@ -18386,15 +18389,15 @@
         <v>8</v>
       </c>
       <c r="M406" s="8">
-        <v>4842.8</v>
+        <v>5788.4</v>
       </c>
       <c r="N406" s="7">
-        <v>1452840</v>
+        <v>1736520</v>
       </c>
     </row>
     <row r="407" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>358</v>
+        <v>117</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>0</v>
@@ -18405,36 +18408,36 @@
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="3">
-        <v>10821</v>
+        <v>91021</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H407" s="4" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="J407" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K407" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L407" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M407" s="8">
-        <v>12692.6</v>
+        <v>8008</v>
       </c>
       <c r="N407" s="7">
-        <v>1015408</v>
+        <v>2242240</v>
       </c>
     </row>
     <row r="408" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>358</v>
+        <v>117</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>0</v>
@@ -18445,31 +18448,31 @@
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="3">
-        <v>10822</v>
+        <v>91122</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H408" s="4" t="s">
-        <v>415</v>
+        <v>39</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>146</v>
+        <v>414</v>
       </c>
       <c r="J408" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K408" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L408" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M408" s="8">
-        <v>11498</v>
+        <v>4842.8</v>
       </c>
       <c r="N408" s="7">
-        <v>1001705.76</v>
+        <v>1452840</v>
       </c>
     </row>
     <row r="409" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18485,16 +18488,16 @@
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="3">
-        <v>111120</v>
+        <v>10821</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="H409" s="4" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="I409" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J409" s="3">
         <v>3</v>
@@ -18506,10 +18509,10 @@
         <v>3</v>
       </c>
       <c r="M409" s="8">
-        <v>1524.3</v>
+        <v>12692.6</v>
       </c>
       <c r="N409" s="7">
-        <v>109190.68</v>
+        <v>1015408</v>
       </c>
     </row>
     <row r="410" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18525,16 +18528,16 @@
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="3">
-        <v>20822</v>
+        <v>10822</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H410" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I410" s="5" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="J410" s="3">
         <v>3</v>
@@ -18546,10 +18549,10 @@
         <v>3</v>
       </c>
       <c r="M410" s="8">
-        <v>2650.2</v>
+        <v>11498</v>
       </c>
       <c r="N410" s="7">
-        <v>291522</v>
+        <v>1001705.76</v>
       </c>
     </row>
     <row r="411" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18565,16 +18568,16 @@
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="3">
-        <v>21021</v>
+        <v>111120</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H411" s="4" t="s">
-        <v>222</v>
+        <v>359</v>
       </c>
       <c r="I411" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J411" s="3">
         <v>3</v>
@@ -18583,13 +18586,13 @@
         <v>2</v>
       </c>
       <c r="L411" s="4" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="M411" s="8">
-        <v>3294.9</v>
+        <v>1524.3</v>
       </c>
       <c r="N411" s="7">
-        <v>306425.7</v>
+        <v>109190.68</v>
       </c>
     </row>
     <row r="412" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18605,13 +18608,13 @@
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="3">
-        <v>30822</v>
+        <v>20822</v>
       </c>
       <c r="G412" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H412" s="4" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="I412" s="5" t="s">
         <v>187</v>
@@ -18625,11 +18628,11 @@
       <c r="L412" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M412" s="6">
-        <v>243.4</v>
+      <c r="M412" s="8">
+        <v>2650.2</v>
       </c>
       <c r="N412" s="7">
-        <v>26774</v>
+        <v>291522</v>
       </c>
     </row>
     <row r="413" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18645,16 +18648,16 @@
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="3">
-        <v>31221</v>
+        <v>21021</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H413" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I413" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J413" s="3">
         <v>3</v>
@@ -18663,13 +18666,13 @@
         <v>2</v>
       </c>
       <c r="L413" s="4" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="M413" s="8">
-        <v>4688.8</v>
+        <v>3294.9</v>
       </c>
       <c r="N413" s="7">
-        <v>363100.67</v>
+        <v>306425.7</v>
       </c>
     </row>
     <row r="414" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18685,16 +18688,16 @@
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="3">
-        <v>40822</v>
+        <v>30822</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H414" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I414" s="5" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="J414" s="3">
         <v>3</v>
@@ -18703,13 +18706,13 @@
         <v>2</v>
       </c>
       <c r="L414" s="4" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="M414" s="6">
-        <v>638.1</v>
+        <v>243.4</v>
       </c>
       <c r="N414" s="7">
-        <v>55591.27</v>
+        <v>26774</v>
       </c>
     </row>
     <row r="415" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18725,16 +18728,16 @@
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="3">
-        <v>41221</v>
+        <v>31221</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="H415" s="4" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I415" s="5" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="J415" s="3">
         <v>3</v>
@@ -18743,13 +18746,13 @@
         <v>2</v>
       </c>
       <c r="L415" s="4" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="M415" s="8">
-        <v>4160.5</v>
+        <v>4688.8</v>
       </c>
       <c r="N415" s="7">
-        <v>322196.06</v>
+        <v>363100.67</v>
       </c>
     </row>
     <row r="416" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18765,16 +18768,16 @@
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="3">
-        <v>51022</v>
+        <v>40822</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H416" s="4" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="I416" s="5" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J416" s="3">
         <v>3</v>
@@ -18783,13 +18786,13 @@
         <v>2</v>
       </c>
       <c r="L416" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M416" s="8">
-        <v>6553</v>
+        <v>155</v>
+      </c>
+      <c r="M416" s="6">
+        <v>638.1</v>
       </c>
       <c r="N416" s="7">
-        <v>507464.32</v>
+        <v>55591.27</v>
       </c>
     </row>
     <row r="417" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18805,16 +18808,16 @@
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="3">
-        <v>70920</v>
+        <v>41221</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="H417" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I417" s="5" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="J417" s="3">
         <v>3</v>
@@ -18823,13 +18826,13 @@
         <v>2</v>
       </c>
       <c r="L417" s="4" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="M417" s="8">
-        <v>7100.4</v>
+        <v>4160.5</v>
       </c>
       <c r="N417" s="7">
-        <v>549854.97</v>
+        <v>322196.06</v>
       </c>
     </row>
     <row r="418" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18845,16 +18848,16 @@
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="3">
-        <v>80920</v>
+        <v>51022</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H418" s="4" t="s">
-        <v>189</v>
+        <v>454</v>
       </c>
       <c r="I418" s="5" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="J418" s="3">
         <v>3</v>
@@ -18863,18 +18866,18 @@
         <v>2</v>
       </c>
       <c r="L418" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M418" s="6">
-        <v>474</v>
+        <v>8</v>
+      </c>
+      <c r="M418" s="8">
+        <v>6553</v>
       </c>
       <c r="N418" s="7">
-        <v>36706.559999999998</v>
+        <v>507464.32</v>
       </c>
     </row>
     <row r="419" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>118</v>
+        <v>358</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>0</v>
@@ -18885,16 +18888,16 @@
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="3">
-        <v>10122</v>
+        <v>70920</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H419" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I419" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J419" s="3">
         <v>3</v>
@@ -18906,15 +18909,15 @@
         <v>3</v>
       </c>
       <c r="M419" s="8">
-        <v>9657.7999999999993</v>
+        <v>7100.4</v>
       </c>
       <c r="N419" s="7">
-        <v>1287706.67</v>
+        <v>549854.97</v>
       </c>
     </row>
     <row r="420" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>118</v>
+        <v>358</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>0</v>
@@ -18925,16 +18928,16 @@
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="3">
-        <v>20222</v>
+        <v>80920</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H420" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I420" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J420" s="3">
         <v>3</v>
@@ -18945,11 +18948,11 @@
       <c r="L420" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M420" s="8">
-        <v>14547.9</v>
+      <c r="M420" s="6">
+        <v>474</v>
       </c>
       <c r="N420" s="7">
-        <v>1939720</v>
+        <v>36706.559999999998</v>
       </c>
     </row>
     <row r="421" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -18962,23 +18965,19 @@
       <c r="C421" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D421" s="3">
-        <v>30220</v>
-      </c>
-      <c r="E421" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="D421" s="4"/>
+      <c r="E421" s="4"/>
       <c r="F421" s="3">
-        <v>30922</v>
+        <v>10122</v>
       </c>
       <c r="G421" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H421" s="4" t="s">
-        <v>436</v>
+        <v>362</v>
       </c>
       <c r="I421" s="5" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="J421" s="3">
         <v>3</v>
@@ -18990,10 +18989,10 @@
         <v>3</v>
       </c>
       <c r="M421" s="8">
-        <v>5294.85</v>
+        <v>9657.7999999999993</v>
       </c>
       <c r="N421" s="7">
-        <v>480948.88</v>
+        <v>1287706.67</v>
       </c>
     </row>
     <row r="422" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19009,16 +19008,16 @@
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="3">
-        <v>40321</v>
+        <v>20222</v>
       </c>
       <c r="G422" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H422" s="4" t="s">
-        <v>333</v>
+        <v>197</v>
       </c>
       <c r="I422" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J422" s="3">
         <v>3</v>
@@ -19030,10 +19029,10 @@
         <v>3</v>
       </c>
       <c r="M422" s="8">
-        <v>4522.3</v>
+        <v>14547.9</v>
       </c>
       <c r="N422" s="7">
-        <v>559634.62</v>
+        <v>1939720</v>
       </c>
     </row>
     <row r="423" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19046,19 +19045,23 @@
       <c r="C423" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D423" s="4"/>
-      <c r="E423" s="4"/>
+      <c r="D423" s="3">
+        <v>30220</v>
+      </c>
+      <c r="E423" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="F423" s="3">
-        <v>50421</v>
+        <v>30922</v>
       </c>
       <c r="G423" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H423" s="4" t="s">
-        <v>333</v>
+        <v>436</v>
       </c>
       <c r="I423" s="5" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="J423" s="3">
         <v>3</v>
@@ -19069,11 +19072,11 @@
       <c r="L423" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M423" s="6">
-        <v>473.8</v>
+      <c r="M423" s="8">
+        <v>5294.85</v>
       </c>
       <c r="N423" s="7">
-        <v>58632.75</v>
+        <v>480948.88</v>
       </c>
     </row>
     <row r="424" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19089,16 +19092,16 @@
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="3">
-        <v>51220</v>
+        <v>40321</v>
       </c>
       <c r="G424" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H424" s="4" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="I424" s="5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J424" s="3">
         <v>3</v>
@@ -19110,10 +19113,10 @@
         <v>3</v>
       </c>
       <c r="M424" s="8">
-        <v>9996.7999999999993</v>
+        <v>4522.3</v>
       </c>
       <c r="N424" s="7">
-        <v>1249600</v>
+        <v>559634.62</v>
       </c>
     </row>
     <row r="425" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19129,16 +19132,16 @@
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="3">
-        <v>81121</v>
+        <v>50421</v>
       </c>
       <c r="G425" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H425" s="4" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="I425" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J425" s="3">
         <v>3</v>
@@ -19149,11 +19152,11 @@
       <c r="L425" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M425" s="8">
-        <v>9048.2000000000007</v>
+      <c r="M425" s="6">
+        <v>473.8</v>
       </c>
       <c r="N425" s="7">
-        <v>1206426.6599999999</v>
+        <v>58632.75</v>
       </c>
     </row>
     <row r="426" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19169,16 +19172,16 @@
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="3">
-        <v>91221</v>
+        <v>51220</v>
       </c>
       <c r="G426" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H426" s="4" t="s">
-        <v>255</v>
+        <v>363</v>
       </c>
       <c r="I426" s="5" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J426" s="3">
         <v>3</v>
@@ -19190,15 +19193,15 @@
         <v>3</v>
       </c>
       <c r="M426" s="8">
-        <v>20446.900000000001</v>
+        <v>9996.7999999999993</v>
       </c>
       <c r="N426" s="7">
-        <v>2726253.34</v>
+        <v>1249600</v>
       </c>
     </row>
     <row r="427" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>0</v>
@@ -19209,16 +19212,16 @@
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="3">
-        <v>10122</v>
+        <v>81121</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="H427" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I427" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J427" s="3">
         <v>3</v>
@@ -19227,18 +19230,18 @@
         <v>2</v>
       </c>
       <c r="L427" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M427" s="8">
-        <v>4988.3</v>
+        <v>9048.2000000000007</v>
       </c>
       <c r="N427" s="7">
-        <v>667125.53</v>
+        <v>1206426.6599999999</v>
       </c>
     </row>
     <row r="428" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>0</v>
@@ -19249,16 +19252,16 @@
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="3">
-        <v>10821</v>
+        <v>91221</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H428" s="4" t="s">
-        <v>364</v>
+        <v>255</v>
       </c>
       <c r="I428" s="5" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="J428" s="3">
         <v>3</v>
@@ -19270,10 +19273,10 @@
         <v>3</v>
       </c>
       <c r="M428" s="8">
-        <v>2887.6</v>
+        <v>20446.900000000001</v>
       </c>
       <c r="N428" s="7">
-        <v>384293.27</v>
+        <v>2726253.34</v>
       </c>
     </row>
     <row r="429" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19289,16 +19292,16 @@
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="3">
-        <v>21021</v>
+        <v>10122</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H429" s="4" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="I429" s="5" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="J429" s="3">
         <v>3</v>
@@ -19307,18 +19310,18 @@
         <v>2</v>
       </c>
       <c r="L429" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M429" s="8">
-        <v>1073.0999999999999</v>
+        <v>4988.3</v>
       </c>
       <c r="N429" s="7">
-        <v>136547.18</v>
+        <v>667125.53</v>
       </c>
     </row>
     <row r="430" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>0</v>
@@ -19326,23 +19329,19 @@
       <c r="C430" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D430" s="3">
-        <v>50616</v>
-      </c>
-      <c r="E430" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="D430" s="4"/>
+      <c r="E430" s="4"/>
       <c r="F430" s="3">
-        <v>50621</v>
+        <v>10821</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H430" s="4" t="s">
-        <v>54</v>
+        <v>364</v>
       </c>
       <c r="I430" s="5" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="J430" s="3">
         <v>3</v>
@@ -19354,15 +19353,15 @@
         <v>3</v>
       </c>
       <c r="M430" s="8">
-        <v>3844.8</v>
+        <v>2887.6</v>
       </c>
       <c r="N430" s="7">
-        <v>635314.75</v>
+        <v>384293.27</v>
       </c>
     </row>
     <row r="431" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>0</v>
@@ -19370,23 +19369,19 @@
       <c r="C431" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D431" s="3">
-        <v>10519</v>
-      </c>
-      <c r="E431" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="D431" s="4"/>
+      <c r="E431" s="4"/>
       <c r="F431" s="3">
-        <v>70921</v>
+        <v>21021</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H431" s="4" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="I431" s="5" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="J431" s="3">
         <v>3</v>
@@ -19398,15 +19393,15 @@
         <v>3</v>
       </c>
       <c r="M431" s="8">
-        <v>2796.5</v>
+        <v>1073.0999999999999</v>
       </c>
       <c r="N431" s="7">
-        <v>239799.87</v>
+        <v>136547.18</v>
       </c>
     </row>
     <row r="432" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>365</v>
+        <v>120</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>0</v>
@@ -19414,19 +19409,23 @@
       <c r="C432" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D432" s="4"/>
-      <c r="E432" s="4"/>
+      <c r="D432" s="3">
+        <v>50616</v>
+      </c>
+      <c r="E432" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="F432" s="3">
-        <v>101022</v>
+        <v>50621</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H432" s="4" t="s">
-        <v>466</v>
+        <v>54</v>
       </c>
       <c r="I432" s="5" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J432" s="3">
         <v>3</v>
@@ -19435,18 +19434,18 @@
         <v>2</v>
       </c>
       <c r="L432" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M432" s="6">
-        <v>672.9</v>
+        <v>3</v>
+      </c>
+      <c r="M432" s="8">
+        <v>3844.8</v>
       </c>
       <c r="N432" s="7">
-        <v>121661.49</v>
+        <v>635314.75</v>
       </c>
     </row>
     <row r="433" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>365</v>
+        <v>120</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>0</v>
@@ -19454,19 +19453,23 @@
       <c r="C433" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D433" s="4"/>
-      <c r="E433" s="4"/>
+      <c r="D433" s="3">
+        <v>10519</v>
+      </c>
+      <c r="E433" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="F433" s="3">
-        <v>10122</v>
+        <v>70921</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H433" s="4" t="s">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="I433" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J433" s="3">
         <v>3</v>
@@ -19477,11 +19480,11 @@
       <c r="L433" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M433" s="6">
-        <v>882.9</v>
+      <c r="M433" s="8">
+        <v>2796.5</v>
       </c>
       <c r="N433" s="7">
-        <v>185412.45</v>
+        <v>239799.87</v>
       </c>
     </row>
     <row r="434" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19497,16 +19500,16 @@
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="3">
-        <v>30622</v>
+        <v>101022</v>
       </c>
       <c r="G434" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H434" s="4" t="s">
-        <v>314</v>
+        <v>466</v>
       </c>
       <c r="I434" s="5" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="J434" s="3">
         <v>3</v>
@@ -19517,11 +19520,11 @@
       <c r="L434" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M434" s="8">
-        <v>9562.2999999999993</v>
+      <c r="M434" s="6">
+        <v>672.9</v>
       </c>
       <c r="N434" s="7">
-        <v>1890332.83</v>
+        <v>121661.49</v>
       </c>
     </row>
     <row r="435" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19537,16 +19540,16 @@
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="3">
-        <v>30721</v>
+        <v>10122</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H435" s="4" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="I435" s="5" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="J435" s="3">
         <v>3</v>
@@ -19555,13 +19558,13 @@
         <v>2</v>
       </c>
       <c r="L435" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M435" s="8">
-        <v>4486.6000000000004</v>
+        <v>3</v>
+      </c>
+      <c r="M435" s="6">
+        <v>882.9</v>
       </c>
       <c r="N435" s="7">
-        <v>1191195.6599999999</v>
+        <v>185412.45</v>
       </c>
     </row>
     <row r="436" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19577,16 +19580,16 @@
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="3">
-        <v>40822</v>
+        <v>30622</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H436" s="4" t="s">
-        <v>404</v>
+        <v>314</v>
       </c>
       <c r="I436" s="5" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J436" s="3">
         <v>3</v>
@@ -19595,13 +19598,13 @@
         <v>2</v>
       </c>
       <c r="L436" s="4" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="M436" s="8">
-        <v>13843.8</v>
+        <v>9562.2999999999993</v>
       </c>
       <c r="N436" s="7">
-        <v>2361280.0499999998</v>
+        <v>1890332.83</v>
       </c>
     </row>
     <row r="437" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19617,16 +19620,16 @@
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="3">
-        <v>50721</v>
+        <v>30721</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H437" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J437" s="3">
         <v>3</v>
@@ -19635,13 +19638,13 @@
         <v>2</v>
       </c>
       <c r="L437" s="4" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="M437" s="8">
-        <v>7610.1</v>
+        <v>4486.6000000000004</v>
       </c>
       <c r="N437" s="7">
-        <v>1563520.69</v>
+        <v>1191195.6599999999</v>
       </c>
     </row>
     <row r="438" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19657,16 +19660,16 @@
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="3">
-        <v>50822</v>
+        <v>40822</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="H438" s="4" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="J438" s="3">
         <v>3</v>
@@ -19675,13 +19678,13 @@
         <v>2</v>
       </c>
       <c r="L438" s="4" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="M438" s="8">
-        <v>9526.2000000000007</v>
+        <v>13843.8</v>
       </c>
       <c r="N438" s="7">
-        <v>2229871.9</v>
+        <v>2361280.0499999998</v>
       </c>
     </row>
     <row r="439" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19697,13 +19700,13 @@
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="3">
-        <v>60821</v>
+        <v>50721</v>
       </c>
       <c r="G439" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H439" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="I439" s="5" t="s">
         <v>176</v>
@@ -19715,13 +19718,13 @@
         <v>2</v>
       </c>
       <c r="L439" s="4" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="M439" s="8">
-        <v>7510.4</v>
+        <v>7610.1</v>
       </c>
       <c r="N439" s="7">
-        <v>1547958.91</v>
+        <v>1563520.69</v>
       </c>
     </row>
     <row r="440" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19737,16 +19740,16 @@
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="F440" s="3">
-        <v>60822</v>
+        <v>50822</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="H440" s="4" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J440" s="3">
         <v>3</v>
@@ -19758,10 +19761,10 @@
         <v>3</v>
       </c>
       <c r="M440" s="8">
-        <v>1987.7</v>
+        <v>9526.2000000000007</v>
       </c>
       <c r="N440" s="7">
-        <v>329479.67999999999</v>
+        <v>2229871.9</v>
       </c>
     </row>
     <row r="441" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19777,16 +19780,16 @@
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="3">
-        <v>70922</v>
+        <v>60821</v>
       </c>
       <c r="G441" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H441" s="4" t="s">
-        <v>443</v>
+        <v>364</v>
       </c>
       <c r="I441" s="5" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="J441" s="3">
         <v>3</v>
@@ -19795,13 +19798,13 @@
         <v>2</v>
       </c>
       <c r="L441" s="4" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="M441" s="8">
-        <v>3568.5</v>
+        <v>7510.4</v>
       </c>
       <c r="N441" s="7">
-        <v>582332.4</v>
+        <v>1547958.91</v>
       </c>
     </row>
     <row r="442" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19817,16 +19820,16 @@
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="3">
-        <v>71021</v>
+        <v>60822</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H442" s="4" t="s">
-        <v>161</v>
+        <v>435</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="J442" s="3">
         <v>3</v>
@@ -19835,13 +19838,13 @@
         <v>2</v>
       </c>
       <c r="L442" s="4" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="M442" s="8">
-        <v>1984.2</v>
+        <v>1987.7</v>
       </c>
       <c r="N442" s="7">
-        <v>502273.35</v>
+        <v>329479.67999999999</v>
       </c>
     </row>
     <row r="443" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19857,7 +19860,7 @@
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="3">
-        <v>80922</v>
+        <v>70922</v>
       </c>
       <c r="G443" s="2" t="s">
         <v>28</v>
@@ -19878,10 +19881,10 @@
         <v>8</v>
       </c>
       <c r="M443" s="8">
-        <v>2518.5</v>
+        <v>3568.5</v>
       </c>
       <c r="N443" s="7">
-        <v>410986.17</v>
+        <v>582332.4</v>
       </c>
     </row>
     <row r="444" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19897,16 +19900,16 @@
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="F444" s="3">
-        <v>91022</v>
+        <v>71021</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H444" s="4" t="s">
-        <v>465</v>
+        <v>161</v>
       </c>
       <c r="I444" s="5" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="J444" s="3">
         <v>3</v>
@@ -19915,18 +19918,18 @@
         <v>2</v>
       </c>
       <c r="L444" s="4" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="M444" s="8">
-        <v>4996.1000000000004</v>
+        <v>1984.2</v>
       </c>
       <c r="N444" s="7">
-        <v>867754.53</v>
+        <v>502273.35</v>
       </c>
     </row>
     <row r="445" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>0</v>
@@ -19934,43 +19937,39 @@
       <c r="C445" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D445" s="3">
-        <v>21118</v>
-      </c>
-      <c r="E445" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="D445" s="4"/>
+      <c r="E445" s="4"/>
       <c r="F445" s="3">
-        <v>10522</v>
+        <v>80922</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H445" s="4" t="s">
-        <v>30</v>
+        <v>443</v>
       </c>
       <c r="I445" s="5" t="s">
         <v>124</v>
       </c>
       <c r="J445" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K445" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L445" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M445" s="8">
-        <v>1222.5999999999999</v>
+        <v>2518.5</v>
       </c>
       <c r="N445" s="7">
-        <v>154986.96</v>
+        <v>410986.17</v>
       </c>
     </row>
     <row r="446" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>0</v>
@@ -19981,31 +19980,31 @@
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" s="3">
-        <v>30621</v>
+        <v>91022</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H446" s="4" t="s">
-        <v>275</v>
+        <v>465</v>
       </c>
       <c r="I446" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J446" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K446" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L446" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M446" s="8">
-        <v>1083.3</v>
+        <v>4996.1000000000004</v>
       </c>
       <c r="N446" s="7">
-        <v>191158.83</v>
+        <v>867754.53</v>
       </c>
     </row>
     <row r="447" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20018,19 +20017,23 @@
       <c r="C447" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D447" s="4"/>
-      <c r="E447" s="4"/>
+      <c r="D447" s="3">
+        <v>21118</v>
+      </c>
+      <c r="E447" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="F447" s="3">
-        <v>50922</v>
+        <v>10522</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="H447" s="4" t="s">
-        <v>452</v>
+        <v>30</v>
       </c>
       <c r="I447" s="5" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="J447" s="3">
         <v>4</v>
@@ -20039,13 +20042,13 @@
         <v>2</v>
       </c>
       <c r="L447" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M447" s="8">
-        <v>1982.9</v>
+        <v>1222.5999999999999</v>
       </c>
       <c r="N447" s="7">
-        <v>436540.37</v>
+        <v>154986.96</v>
       </c>
     </row>
     <row r="448" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20061,16 +20064,16 @@
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="F448" s="3">
-        <v>50922</v>
+        <v>30621</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="H448" s="4" t="s">
-        <v>452</v>
+        <v>275</v>
       </c>
       <c r="I448" s="5" t="s">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="J448" s="3">
         <v>4</v>
@@ -20081,9 +20084,11 @@
       <c r="L448" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M448" s="13"/>
-      <c r="N448" s="14">
-        <v>834.6</v>
+      <c r="M448" s="8">
+        <v>1083.3</v>
+      </c>
+      <c r="N448" s="7">
+        <v>191158.83</v>
       </c>
     </row>
     <row r="449" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20099,13 +20104,13 @@
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" s="3">
-        <v>61022</v>
+        <v>50922</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>261</v>
+        <v>28</v>
       </c>
       <c r="H449" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I449" s="5" t="s">
         <v>243</v>
@@ -20117,13 +20122,13 @@
         <v>2</v>
       </c>
       <c r="L449" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M449" s="6">
-        <v>334.1</v>
+        <v>8</v>
+      </c>
+      <c r="M449" s="8">
+        <v>1982.9</v>
       </c>
       <c r="N449" s="7">
-        <v>60138</v>
+        <v>436540.37</v>
       </c>
     </row>
     <row r="450" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20139,13 +20144,13 @@
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="3">
-        <v>81022</v>
+        <v>50922</v>
       </c>
       <c r="G450" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H450" s="4" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="I450" s="5" t="s">
         <v>243</v>
@@ -20157,13 +20162,11 @@
         <v>2</v>
       </c>
       <c r="L450" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M450" s="8">
-        <v>3012.7</v>
-      </c>
-      <c r="N450" s="7">
-        <v>680876.71</v>
+        <v>3</v>
+      </c>
+      <c r="M450" s="13"/>
+      <c r="N450" s="14">
+        <v>834.6</v>
       </c>
     </row>
     <row r="451" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20179,13 +20182,13 @@
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
       <c r="F451" s="3">
-        <v>91122</v>
+        <v>61022</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>467</v>
+        <v>261</v>
       </c>
       <c r="H451" s="4" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="I451" s="5" t="s">
         <v>243</v>
@@ -20199,16 +20202,16 @@
       <c r="L451" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M451" s="8">
-        <v>7744.1</v>
+      <c r="M451" s="6">
+        <v>334.1</v>
       </c>
       <c r="N451" s="7">
-        <v>1626745.68</v>
+        <v>60138</v>
       </c>
     </row>
     <row r="452" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>368</v>
+        <v>122</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>0</v>
@@ -20219,36 +20222,36 @@
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="F452" s="3">
-        <v>11021</v>
+        <v>81022</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H452" s="4" t="s">
-        <v>191</v>
+        <v>466</v>
       </c>
       <c r="I452" s="5" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="J452" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K452" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L452" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M452" s="8">
-        <v>1383.9</v>
+        <v>3012.7</v>
       </c>
       <c r="N452" s="7">
-        <v>388483.8</v>
+        <v>680876.71</v>
       </c>
     </row>
     <row r="453" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>368</v>
+        <v>122</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>0</v>
@@ -20259,7 +20262,7 @@
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="F453" s="3">
-        <v>11122</v>
+        <v>91122</v>
       </c>
       <c r="G453" s="2" t="s">
         <v>467</v>
@@ -20268,10 +20271,10 @@
         <v>468</v>
       </c>
       <c r="I453" s="5" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="J453" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K453" s="4" t="s">
         <v>2</v>
@@ -20280,10 +20283,10 @@
         <v>3</v>
       </c>
       <c r="M453" s="8">
-        <v>8203</v>
+        <v>7744.1</v>
       </c>
       <c r="N453" s="7">
-        <v>1407427.39</v>
+        <v>1626745.68</v>
       </c>
     </row>
     <row r="454" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20299,13 +20302,13 @@
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="3">
-        <v>21121</v>
+        <v>11021</v>
       </c>
       <c r="G454" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H454" s="4" t="s">
-        <v>369</v>
+        <v>191</v>
       </c>
       <c r="I454" s="5" t="s">
         <v>21</v>
@@ -20320,15 +20323,15 @@
         <v>3</v>
       </c>
       <c r="M454" s="8">
-        <v>3898.4</v>
+        <v>1383.9</v>
       </c>
       <c r="N454" s="7">
-        <v>1124883.32</v>
+        <v>388483.8</v>
       </c>
     </row>
     <row r="455" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>0</v>
@@ -20339,19 +20342,19 @@
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="3">
-        <v>10122</v>
+        <v>11122</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>59</v>
+        <v>467</v>
       </c>
       <c r="H455" s="4" t="s">
-        <v>232</v>
+        <v>468</v>
       </c>
       <c r="I455" s="5" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J455" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K455" s="4" t="s">
         <v>2</v>
@@ -20360,15 +20363,15 @@
         <v>3</v>
       </c>
       <c r="M455" s="8">
-        <v>1384.8</v>
+        <v>8203</v>
       </c>
       <c r="N455" s="7">
-        <v>249264</v>
+        <v>1407427.39</v>
       </c>
     </row>
     <row r="456" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>0</v>
@@ -20379,19 +20382,19 @@
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="F456" s="3">
-        <v>111121</v>
+        <v>21121</v>
       </c>
       <c r="G456" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H456" s="4" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="I456" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J456" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K456" s="4" t="s">
         <v>2</v>
@@ -20400,10 +20403,10 @@
         <v>3</v>
       </c>
       <c r="M456" s="8">
-        <v>1362.8</v>
+        <v>3898.4</v>
       </c>
       <c r="N456" s="7">
-        <v>182547.06</v>
+        <v>1124883.32</v>
       </c>
     </row>
     <row r="457" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20419,13 +20422,13 @@
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
       <c r="F457" s="3">
-        <v>20122</v>
+        <v>10122</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H457" s="4" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="I457" s="5" t="s">
         <v>24</v>
@@ -20440,10 +20443,10 @@
         <v>3</v>
       </c>
       <c r="M457" s="8">
-        <v>6555.1</v>
+        <v>1384.8</v>
       </c>
       <c r="N457" s="7">
-        <v>1323966.03</v>
+        <v>249264</v>
       </c>
     </row>
     <row r="458" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20459,13 +20462,13 @@
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="F458" s="3">
-        <v>30522</v>
+        <v>111121</v>
       </c>
       <c r="G458" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H458" s="4" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="I458" s="5" t="s">
         <v>24</v>
@@ -20477,13 +20480,13 @@
         <v>2</v>
       </c>
       <c r="L458" s="4" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="M458" s="8">
-        <v>8684.7000000000007</v>
+        <v>1362.8</v>
       </c>
       <c r="N458" s="7">
-        <v>1429139.76</v>
+        <v>182547.06</v>
       </c>
     </row>
     <row r="459" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20499,13 +20502,13 @@
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="F459" s="3">
-        <v>40522</v>
+        <v>20122</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="H459" s="4" t="s">
-        <v>372</v>
+        <v>289</v>
       </c>
       <c r="I459" s="5" t="s">
         <v>24</v>
@@ -20517,13 +20520,13 @@
         <v>2</v>
       </c>
       <c r="L459" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M459" s="8">
-        <v>3480.1</v>
+        <v>6555.1</v>
       </c>
       <c r="N459" s="7">
-        <v>538893.48</v>
+        <v>1323966.03</v>
       </c>
     </row>
     <row r="460" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20539,13 +20542,13 @@
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
       <c r="F460" s="3">
-        <v>60822</v>
+        <v>30522</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="H460" s="4" t="s">
-        <v>435</v>
+        <v>371</v>
       </c>
       <c r="I460" s="5" t="s">
         <v>24</v>
@@ -20557,13 +20560,13 @@
         <v>2</v>
       </c>
       <c r="L460" s="4" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="M460" s="8">
-        <v>6692.7</v>
+        <v>8684.7000000000007</v>
       </c>
       <c r="N460" s="7">
-        <v>1145793.07</v>
+        <v>1429139.76</v>
       </c>
     </row>
     <row r="461" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20579,13 +20582,13 @@
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="3">
-        <v>60921</v>
+        <v>40522</v>
       </c>
       <c r="G461" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H461" s="4" t="s">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="I461" s="5" t="s">
         <v>24</v>
@@ -20600,10 +20603,10 @@
         <v>8</v>
       </c>
       <c r="M461" s="8">
-        <v>6734.7</v>
+        <v>3480.1</v>
       </c>
       <c r="N461" s="7">
-        <v>919174.3</v>
+        <v>538893.48</v>
       </c>
     </row>
     <row r="462" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20619,13 +20622,13 @@
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="F462" s="3">
-        <v>71021</v>
+        <v>60822</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="H462" s="4" t="s">
-        <v>329</v>
+        <v>435</v>
       </c>
       <c r="I462" s="5" t="s">
         <v>24</v>
@@ -20637,13 +20640,13 @@
         <v>2</v>
       </c>
       <c r="L462" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M462" s="6">
-        <v>316.39999999999998</v>
+        <v>3</v>
+      </c>
+      <c r="M462" s="8">
+        <v>6692.7</v>
       </c>
       <c r="N462" s="7">
-        <v>41936.18</v>
+        <v>1145793.07</v>
       </c>
     </row>
     <row r="463" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20659,13 +20662,13 @@
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
       <c r="F463" s="3">
-        <v>71021</v>
+        <v>60921</v>
       </c>
       <c r="G463" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H463" s="4" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="I463" s="5" t="s">
         <v>24</v>
@@ -20677,13 +20680,13 @@
         <v>2</v>
       </c>
       <c r="L463" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M463" s="8">
-        <v>1534.4</v>
+        <v>6734.7</v>
       </c>
       <c r="N463" s="7">
-        <v>203371.94</v>
+        <v>919174.3</v>
       </c>
     </row>
     <row r="464" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20699,16 +20702,16 @@
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
       <c r="F464" s="3">
-        <v>71022</v>
+        <v>71021</v>
       </c>
       <c r="G464" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H464" s="4" t="s">
-        <v>458</v>
+        <v>329</v>
       </c>
       <c r="I464" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J464" s="3">
         <v>2</v>
@@ -20717,13 +20720,13 @@
         <v>2</v>
       </c>
       <c r="L464" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M464" s="8">
-        <v>13658</v>
+        <v>8</v>
+      </c>
+      <c r="M464" s="6">
+        <v>316.39999999999998</v>
       </c>
       <c r="N464" s="7">
-        <v>2231261.94</v>
+        <v>41936.18</v>
       </c>
     </row>
     <row r="465" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20739,13 +20742,13 @@
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
       <c r="F465" s="3">
-        <v>81021</v>
+        <v>71021</v>
       </c>
       <c r="G465" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H465" s="4" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="I465" s="5" t="s">
         <v>24</v>
@@ -20760,15 +20763,15 @@
         <v>3</v>
       </c>
       <c r="M465" s="8">
-        <v>1299.0999999999999</v>
+        <v>1534.4</v>
       </c>
       <c r="N465" s="7">
-        <v>173094.25</v>
+        <v>203371.94</v>
       </c>
     </row>
     <row r="466" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>0</v>
@@ -20779,16 +20782,16 @@
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
       <c r="F466" s="3">
-        <v>10221</v>
+        <v>71022</v>
       </c>
       <c r="G466" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H466" s="4" t="s">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="I466" s="5" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="J466" s="3">
         <v>2</v>
@@ -20800,15 +20803,15 @@
         <v>3</v>
       </c>
       <c r="M466" s="8">
-        <v>2983.7</v>
+        <v>13658</v>
       </c>
       <c r="N466" s="7">
-        <v>505438.78</v>
+        <v>2231261.94</v>
       </c>
     </row>
     <row r="467" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>0</v>
@@ -20816,23 +20819,19 @@
       <c r="C467" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D467" s="3">
-        <v>151220</v>
-      </c>
-      <c r="E467" s="4" t="s">
-        <v>375</v>
-      </c>
+      <c r="D467" s="4"/>
+      <c r="E467" s="4"/>
       <c r="F467" s="3">
-        <v>10322</v>
+        <v>81021</v>
       </c>
       <c r="G467" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H467" s="4" t="s">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="I467" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J467" s="3">
         <v>2</v>
@@ -20844,10 +20843,10 @@
         <v>3</v>
       </c>
       <c r="M467" s="8">
-        <v>11375.3</v>
+        <v>1299.0999999999999</v>
       </c>
       <c r="N467" s="7">
-        <v>2218167.11</v>
+        <v>173094.25</v>
       </c>
     </row>
     <row r="468" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20863,7 +20862,7 @@
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="3">
-        <v>20221</v>
+        <v>10221</v>
       </c>
       <c r="G468" s="2" t="s">
         <v>10</v>
@@ -20881,13 +20880,13 @@
         <v>2</v>
       </c>
       <c r="L468" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M468" s="8">
-        <v>4695.2</v>
+        <v>2983.7</v>
       </c>
       <c r="N468" s="7">
-        <v>949878.09</v>
+        <v>505438.78</v>
       </c>
     </row>
     <row r="469" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20901,22 +20900,22 @@
         <v>1</v>
       </c>
       <c r="D469" s="3">
-        <v>80620</v>
+        <v>151220</v>
       </c>
       <c r="E469" s="4" t="s">
-        <v>126</v>
+        <v>375</v>
       </c>
       <c r="F469" s="3">
-        <v>20422</v>
+        <v>10322</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="H469" s="4" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="I469" s="5" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J469" s="3">
         <v>2</v>
@@ -20928,15 +20927,15 @@
         <v>3</v>
       </c>
       <c r="M469" s="8">
-        <v>8244.7999999999993</v>
+        <v>11375.3</v>
       </c>
       <c r="N469" s="7">
-        <v>1467574.4</v>
+        <v>2218167.11</v>
       </c>
     </row>
     <row r="470" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>0</v>
@@ -20947,36 +20946,36 @@
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="3">
-        <v>10122</v>
+        <v>20221</v>
       </c>
       <c r="G470" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H470" s="4" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="I470" s="5" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="J470" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K470" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L470" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M470" s="6">
-        <v>790.3</v>
+        <v>8</v>
+      </c>
+      <c r="M470" s="8">
+        <v>4695.2</v>
       </c>
       <c r="N470" s="7">
-        <v>73827.19</v>
+        <v>949878.09</v>
       </c>
     </row>
     <row r="471" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>0</v>
@@ -20984,22 +20983,26 @@
       <c r="C471" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D471" s="4"/>
-      <c r="E471" s="4"/>
+      <c r="D471" s="3">
+        <v>80620</v>
+      </c>
+      <c r="E471" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="F471" s="3">
-        <v>10221</v>
+        <v>20422</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="H471" s="4" t="s">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="I471" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J471" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K471" s="4" t="s">
         <v>2</v>
@@ -21008,10 +21011,10 @@
         <v>3</v>
       </c>
       <c r="M471" s="8">
-        <v>3758.5</v>
+        <v>8244.7999999999993</v>
       </c>
       <c r="N471" s="7">
-        <v>322366.55</v>
+        <v>1467574.4</v>
       </c>
     </row>
     <row r="472" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21024,23 +21027,19 @@
       <c r="C472" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D472" s="3">
-        <v>20818</v>
-      </c>
-      <c r="E472" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="D472" s="4"/>
+      <c r="E472" s="4"/>
       <c r="F472" s="3">
-        <v>20721</v>
+        <v>10122</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="H472" s="4" t="s">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="I472" s="5" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="J472" s="3">
         <v>3</v>
@@ -21049,13 +21048,13 @@
         <v>2</v>
       </c>
       <c r="L472" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M472" s="8">
-        <v>6151.1</v>
+        <v>3</v>
+      </c>
+      <c r="M472" s="6">
+        <v>790.3</v>
       </c>
       <c r="N472" s="7">
-        <v>596011.35</v>
+        <v>73827.19</v>
       </c>
     </row>
     <row r="473" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21071,16 +21070,16 @@
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="F473" s="3">
-        <v>21022</v>
+        <v>10221</v>
       </c>
       <c r="G473" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H473" s="4" t="s">
-        <v>454</v>
+        <v>376</v>
       </c>
       <c r="I473" s="5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="J473" s="3">
         <v>3</v>
@@ -21089,13 +21088,13 @@
         <v>2</v>
       </c>
       <c r="L473" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M473" s="8">
-        <v>5172</v>
+        <v>3758.5</v>
       </c>
       <c r="N473" s="7">
-        <v>500649.6</v>
+        <v>322366.55</v>
       </c>
     </row>
     <row r="474" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21109,16 +21108,16 @@
         <v>1</v>
       </c>
       <c r="D474" s="3">
-        <v>41018</v>
+        <v>20818</v>
       </c>
       <c r="E474" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F474" s="3">
-        <v>40721</v>
+        <v>20721</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H474" s="4" t="s">
         <v>130</v>
@@ -21133,13 +21132,13 @@
         <v>2</v>
       </c>
       <c r="L474" s="4" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="M474" s="8">
-        <v>11965.3</v>
+        <v>6151.1</v>
       </c>
       <c r="N474" s="7">
-        <v>1031408.86</v>
+        <v>596011.35</v>
       </c>
     </row>
     <row r="475" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21152,23 +21151,19 @@
       <c r="C475" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D475" s="3">
-        <v>41018</v>
-      </c>
-      <c r="E475" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="D475" s="4"/>
+      <c r="E475" s="4"/>
       <c r="F475" s="3">
-        <v>40721</v>
+        <v>21022</v>
       </c>
       <c r="G475" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H475" s="4" t="s">
-        <v>130</v>
+        <v>454</v>
       </c>
       <c r="I475" s="5" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="J475" s="3">
         <v>3</v>
@@ -21177,13 +21172,13 @@
         <v>2</v>
       </c>
       <c r="L475" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M475" s="8">
-        <v>1535.4</v>
+        <v>5172</v>
       </c>
       <c r="N475" s="7">
-        <v>132351.48000000001</v>
+        <v>500649.6</v>
       </c>
     </row>
     <row r="476" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21197,16 +21192,16 @@
         <v>1</v>
       </c>
       <c r="D476" s="3">
-        <v>50619</v>
+        <v>41018</v>
       </c>
       <c r="E476" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F476" s="3">
-        <v>50721</v>
+        <v>40721</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H476" s="4" t="s">
         <v>130</v>
@@ -21221,13 +21216,13 @@
         <v>2</v>
       </c>
       <c r="L476" s="4" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="M476" s="8">
-        <v>5435.9</v>
+        <v>11965.3</v>
       </c>
       <c r="N476" s="7">
-        <v>526195.12</v>
+        <v>1031408.86</v>
       </c>
     </row>
     <row r="477" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21240,19 +21235,23 @@
       <c r="C477" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D477" s="4"/>
-      <c r="E477" s="4"/>
+      <c r="D477" s="3">
+        <v>41018</v>
+      </c>
+      <c r="E477" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="F477" s="3">
-        <v>60821</v>
+        <v>40721</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="H477" s="4" t="s">
-        <v>321</v>
+        <v>130</v>
       </c>
       <c r="I477" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J477" s="3">
         <v>3</v>
@@ -21261,13 +21260,13 @@
         <v>2</v>
       </c>
       <c r="L477" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M477" s="8">
-        <v>5484.9</v>
+        <v>1535.4</v>
       </c>
       <c r="N477" s="7">
-        <v>508130.27</v>
+        <v>132351.48000000001</v>
       </c>
     </row>
     <row r="478" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21280,19 +21279,23 @@
       <c r="C478" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D478" s="4"/>
-      <c r="E478" s="4"/>
+      <c r="D478" s="3">
+        <v>50619</v>
+      </c>
+      <c r="E478" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="F478" s="3">
-        <v>70921</v>
+        <v>50721</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H478" s="4" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
       <c r="I478" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J478" s="3">
         <v>3</v>
@@ -21304,10 +21307,10 @@
         <v>3</v>
       </c>
       <c r="M478" s="8">
-        <v>10097.5</v>
+        <v>5435.9</v>
       </c>
       <c r="N478" s="7">
-        <v>901504.8</v>
+        <v>526195.12</v>
       </c>
     </row>
     <row r="479" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21323,16 +21326,16 @@
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
       <c r="F479" s="3">
-        <v>81021</v>
+        <v>60821</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="H479" s="4" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="I479" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J479" s="3">
         <v>3</v>
@@ -21344,10 +21347,10 @@
         <v>8</v>
       </c>
       <c r="M479" s="8">
-        <v>13222.6</v>
+        <v>5484.9</v>
       </c>
       <c r="N479" s="7">
-        <v>1322260</v>
+        <v>508130.27</v>
       </c>
     </row>
     <row r="480" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21363,16 +21366,16 @@
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
       <c r="F480" s="3">
-        <v>81021</v>
+        <v>70921</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H480" s="4" t="s">
-        <v>377</v>
+        <v>271</v>
       </c>
       <c r="I480" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J480" s="3">
         <v>3</v>
@@ -21384,10 +21387,10 @@
         <v>3</v>
       </c>
       <c r="M480" s="8">
-        <v>3145</v>
+        <v>10097.5</v>
       </c>
       <c r="N480" s="7">
-        <v>314500</v>
+        <v>901504.8</v>
       </c>
     </row>
     <row r="481" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21403,16 +21406,16 @@
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="F481" s="3">
-        <v>91221</v>
+        <v>81021</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="H481" s="4" t="s">
-        <v>26</v>
+        <v>377</v>
       </c>
       <c r="I481" s="5" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="J481" s="3">
         <v>3</v>
@@ -21421,18 +21424,18 @@
         <v>2</v>
       </c>
       <c r="L481" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M481" s="8">
-        <v>2177.6</v>
+        <v>13222.6</v>
       </c>
       <c r="N481" s="7">
-        <v>201518.73</v>
+        <v>1322260</v>
       </c>
     </row>
     <row r="482" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>378</v>
+        <v>128</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>0</v>
@@ -21443,16 +21446,16 @@
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
       <c r="F482" s="3">
-        <v>10721</v>
+        <v>81021</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="H482" s="4" t="s">
-        <v>158</v>
+        <v>377</v>
       </c>
       <c r="I482" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J482" s="3">
         <v>3</v>
@@ -21461,18 +21464,18 @@
         <v>2</v>
       </c>
       <c r="L482" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M482" s="6">
-        <v>734.7</v>
+        <v>3</v>
+      </c>
+      <c r="M482" s="8">
+        <v>3145</v>
       </c>
       <c r="N482" s="7">
-        <v>108012.36</v>
+        <v>314500</v>
       </c>
     </row>
     <row r="483" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>378</v>
+        <v>128</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>0</v>
@@ -21483,16 +21486,16 @@
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
       <c r="F483" s="3">
-        <v>10822</v>
+        <v>91221</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="H483" s="4" t="s">
-        <v>434</v>
+        <v>26</v>
       </c>
       <c r="I483" s="5" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="J483" s="3">
         <v>3</v>
@@ -21501,13 +21504,13 @@
         <v>2</v>
       </c>
       <c r="L483" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M483" s="8">
-        <v>1998.3</v>
+        <v>2177.6</v>
       </c>
       <c r="N483" s="7">
-        <v>299745</v>
+        <v>201518.73</v>
       </c>
     </row>
     <row r="484" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21523,16 +21526,16 @@
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
       <c r="F484" s="3">
-        <v>21021</v>
+        <v>10721</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="H484" s="4" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="I484" s="5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J484" s="3">
         <v>3</v>
@@ -21541,13 +21544,13 @@
         <v>2</v>
       </c>
       <c r="L484" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M484" s="8">
-        <v>1997.1</v>
+        <v>8</v>
+      </c>
+      <c r="M484" s="6">
+        <v>734.7</v>
       </c>
       <c r="N484" s="7">
-        <v>283038.2</v>
+        <v>108012.36</v>
       </c>
     </row>
     <row r="485" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21563,16 +21566,16 @@
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
       <c r="F485" s="3">
-        <v>30920</v>
+        <v>10822</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="H485" s="4" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="I485" s="5" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="J485" s="3">
         <v>3</v>
@@ -21581,13 +21584,13 @@
         <v>2</v>
       </c>
       <c r="L485" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M485" s="8">
-        <v>3101.8</v>
+        <v>1998.3</v>
       </c>
       <c r="N485" s="7">
-        <v>465399.25</v>
+        <v>299745</v>
       </c>
     </row>
     <row r="486" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21603,16 +21606,16 @@
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
       <c r="F486" s="3">
-        <v>31221</v>
+        <v>21021</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H486" s="4" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="I486" s="5" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="J486" s="3">
         <v>3</v>
@@ -21624,10 +21627,10 @@
         <v>3</v>
       </c>
       <c r="M486" s="8">
-        <v>1740.7</v>
+        <v>1997.1</v>
       </c>
       <c r="N486" s="7">
-        <v>261177.52</v>
+        <v>283038.2</v>
       </c>
     </row>
     <row r="487" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21643,16 +21646,16 @@
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
       <c r="F487" s="3">
-        <v>41221</v>
+        <v>30920</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H487" s="4" t="s">
-        <v>162</v>
+        <v>379</v>
       </c>
       <c r="I487" s="5" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="J487" s="3">
         <v>3</v>
@@ -21663,16 +21666,16 @@
       <c r="L487" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M487" s="6">
-        <v>274.60000000000002</v>
+      <c r="M487" s="8">
+        <v>3101.8</v>
       </c>
       <c r="N487" s="7">
-        <v>40361.93</v>
+        <v>465399.25</v>
       </c>
     </row>
     <row r="488" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>0</v>
@@ -21683,16 +21686,16 @@
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
       <c r="F488" s="3">
-        <v>10122</v>
+        <v>31221</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="H488" s="4" t="s">
-        <v>289</v>
+        <v>26</v>
       </c>
       <c r="I488" s="5" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="J488" s="3">
         <v>3</v>
@@ -21701,18 +21704,18 @@
         <v>2</v>
       </c>
       <c r="L488" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M488" s="8">
-        <v>2168.9</v>
+        <v>1740.7</v>
       </c>
       <c r="N488" s="7">
-        <v>435991.98</v>
+        <v>261177.52</v>
       </c>
     </row>
     <row r="489" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>0</v>
@@ -21723,16 +21726,16 @@
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
       <c r="F489" s="3">
-        <v>20322</v>
+        <v>41221</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H489" s="4" t="s">
-        <v>311</v>
+        <v>162</v>
       </c>
       <c r="I489" s="5" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="J489" s="3">
         <v>3</v>
@@ -21741,13 +21744,13 @@
         <v>2</v>
       </c>
       <c r="L489" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M489" s="6">
-        <v>397.2</v>
+        <v>274.60000000000002</v>
       </c>
       <c r="N489" s="7">
-        <v>73119.17</v>
+        <v>40361.93</v>
       </c>
     </row>
     <row r="490" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21763,16 +21766,16 @@
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
       <c r="F490" s="3">
-        <v>30822</v>
+        <v>10122</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="H490" s="4" t="s">
-        <v>404</v>
+        <v>289</v>
       </c>
       <c r="I490" s="5" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="J490" s="3">
         <v>3</v>
@@ -21781,13 +21784,13 @@
         <v>2</v>
       </c>
       <c r="L490" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M490" s="8">
-        <v>11142.4</v>
+        <v>2168.9</v>
       </c>
       <c r="N490" s="7">
-        <v>2393826.5099999998</v>
+        <v>435991.98</v>
       </c>
     </row>
     <row r="491" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21803,13 +21806,13 @@
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
       <c r="F491" s="3">
-        <v>40821</v>
+        <v>20322</v>
       </c>
       <c r="G491" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H491" s="4" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="I491" s="5" t="s">
         <v>7</v>
@@ -21821,13 +21824,13 @@
         <v>2</v>
       </c>
       <c r="L491" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M491" s="8">
-        <v>1318</v>
+        <v>8</v>
+      </c>
+      <c r="M491" s="6">
+        <v>397.2</v>
       </c>
       <c r="N491" s="7">
-        <v>241157.77</v>
+        <v>73119.17</v>
       </c>
     </row>
     <row r="492" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21843,13 +21846,13 @@
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
       <c r="F492" s="3">
-        <v>40822</v>
+        <v>30822</v>
       </c>
       <c r="G492" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H492" s="4" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="I492" s="5" t="s">
         <v>83</v>
@@ -21861,13 +21864,13 @@
         <v>2</v>
       </c>
       <c r="L492" s="4" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="M492" s="8">
-        <v>5543.2</v>
+        <v>11142.4</v>
       </c>
       <c r="N492" s="7">
-        <v>1147274.5900000001</v>
+        <v>2393826.5099999998</v>
       </c>
     </row>
     <row r="493" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21883,16 +21886,16 @@
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
       <c r="F493" s="3">
-        <v>50720</v>
+        <v>40821</v>
       </c>
       <c r="G493" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H493" s="4" t="s">
-        <v>381</v>
+        <v>247</v>
       </c>
       <c r="I493" s="5" t="s">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="J493" s="3">
         <v>3</v>
@@ -21901,13 +21904,13 @@
         <v>2</v>
       </c>
       <c r="L493" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M493" s="6">
-        <v>529.1</v>
+        <v>3</v>
+      </c>
+      <c r="M493" s="8">
+        <v>1318</v>
       </c>
       <c r="N493" s="7">
-        <v>97541.33</v>
+        <v>241157.77</v>
       </c>
     </row>
     <row r="494" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21923,16 +21926,16 @@
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
       <c r="F494" s="3">
-        <v>50821</v>
+        <v>40822</v>
       </c>
       <c r="G494" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H494" s="4" t="s">
-        <v>247</v>
+        <v>418</v>
       </c>
       <c r="I494" s="5" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="J494" s="3">
         <v>3</v>
@@ -21941,13 +21944,13 @@
         <v>2</v>
       </c>
       <c r="L494" s="4" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="M494" s="8">
-        <v>3997.3</v>
+        <v>5543.2</v>
       </c>
       <c r="N494" s="7">
-        <v>732180.38</v>
+        <v>1147274.5900000001</v>
       </c>
     </row>
     <row r="495" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21963,16 +21966,16 @@
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
       <c r="F495" s="3">
-        <v>50822</v>
+        <v>50720</v>
       </c>
       <c r="G495" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H495" s="4" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="I495" s="5" t="s">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="J495" s="3">
         <v>3</v>
@@ -21983,11 +21986,11 @@
       <c r="L495" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M495" s="8">
-        <v>3323.6</v>
+      <c r="M495" s="6">
+        <v>529.1</v>
       </c>
       <c r="N495" s="7">
-        <v>687884.58</v>
+        <v>97541.33</v>
       </c>
     </row>
     <row r="496" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22003,7 +22006,7 @@
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
       <c r="F496" s="3">
-        <v>60821</v>
+        <v>50821</v>
       </c>
       <c r="G496" s="2" t="s">
         <v>28</v>
@@ -22024,10 +22027,10 @@
         <v>3</v>
       </c>
       <c r="M496" s="8">
-        <v>3797.7</v>
+        <v>3997.3</v>
       </c>
       <c r="N496" s="7">
-        <v>694874.74</v>
+        <v>732180.38</v>
       </c>
     </row>
     <row r="497" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22043,16 +22046,16 @@
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
       <c r="F497" s="3">
-        <v>70921</v>
+        <v>50822</v>
       </c>
       <c r="G497" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H497" s="4" t="s">
-        <v>251</v>
+        <v>418</v>
       </c>
       <c r="I497" s="5" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="J497" s="3">
         <v>3</v>
@@ -22061,13 +22064,13 @@
         <v>2</v>
       </c>
       <c r="L497" s="4" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="M497" s="8">
-        <v>3196.2</v>
+        <v>3323.6</v>
       </c>
       <c r="N497" s="7">
-        <v>562176.65</v>
+        <v>687884.58</v>
       </c>
     </row>
     <row r="498" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22083,13 +22086,13 @@
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
       <c r="F498" s="3">
-        <v>70921</v>
+        <v>60821</v>
       </c>
       <c r="G498" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H498" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I498" s="5" t="s">
         <v>7</v>
@@ -22103,11 +22106,11 @@
       <c r="L498" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M498" s="6">
-        <v>14.8</v>
+      <c r="M498" s="8">
+        <v>3797.7</v>
       </c>
       <c r="N498" s="7">
-        <v>2603.16</v>
+        <v>694874.74</v>
       </c>
     </row>
     <row r="499" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22123,13 +22126,13 @@
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
       <c r="F499" s="3">
-        <v>81021</v>
+        <v>70921</v>
       </c>
       <c r="G499" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H499" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I499" s="5" t="s">
         <v>7</v>
@@ -22141,18 +22144,18 @@
         <v>2</v>
       </c>
       <c r="L499" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M499" s="6">
-        <v>54.9</v>
+        <v>8</v>
+      </c>
+      <c r="M499" s="8">
+        <v>3196.2</v>
       </c>
       <c r="N499" s="7">
-        <v>9625.2800000000007</v>
+        <v>562176.65</v>
       </c>
     </row>
     <row r="500" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>133</v>
+        <v>380</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>0</v>
@@ -22163,19 +22166,19 @@
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
       <c r="F500" s="3">
-        <v>101022</v>
+        <v>70921</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H500" s="4" t="s">
-        <v>457</v>
+        <v>251</v>
       </c>
       <c r="I500" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J500" s="10">
-        <v>1.5</v>
+        <v>7</v>
+      </c>
+      <c r="J500" s="3">
+        <v>3</v>
       </c>
       <c r="K500" s="4" t="s">
         <v>2</v>
@@ -22183,16 +22186,16 @@
       <c r="L500" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M500" s="8">
-        <v>9958.2999999999993</v>
+      <c r="M500" s="6">
+        <v>14.8</v>
       </c>
       <c r="N500" s="7">
-        <v>1857928.96</v>
+        <v>2603.16</v>
       </c>
     </row>
     <row r="501" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>133</v>
+        <v>380</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>0</v>
@@ -22200,38 +22203,34 @@
       <c r="C501" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D501" s="3">
-        <v>141019</v>
-      </c>
-      <c r="E501" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="D501" s="4"/>
+      <c r="E501" s="4"/>
       <c r="F501" s="3">
-        <v>10122</v>
+        <v>81021</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="H501" s="4" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="I501" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J501" s="10">
-        <v>1.5</v>
+        <v>7</v>
+      </c>
+      <c r="J501" s="3">
+        <v>3</v>
       </c>
       <c r="K501" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L501" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M501" s="8">
-        <v>13996.2</v>
+        <v>3</v>
+      </c>
+      <c r="M501" s="6">
+        <v>54.9</v>
       </c>
       <c r="N501" s="7">
-        <v>1241929.47</v>
+        <v>9625.2800000000007</v>
       </c>
     </row>
     <row r="502" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22247,13 +22246,13 @@
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
       <c r="F502" s="3">
-        <v>111122</v>
+        <v>101022</v>
       </c>
       <c r="G502" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H502" s="4" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="I502" s="5" t="s">
         <v>50</v>
@@ -22268,10 +22267,10 @@
         <v>3</v>
       </c>
       <c r="M502" s="8">
-        <v>9943.1</v>
+        <v>9958.2999999999993</v>
       </c>
       <c r="N502" s="7">
-        <v>1826158.1</v>
+        <v>1857928.96</v>
       </c>
     </row>
     <row r="503" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22284,19 +22283,23 @@
       <c r="C503" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D503" s="4"/>
-      <c r="E503" s="4"/>
+      <c r="D503" s="3">
+        <v>141019</v>
+      </c>
+      <c r="E503" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="F503" s="3">
-        <v>131021</v>
+        <v>10122</v>
       </c>
       <c r="G503" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H503" s="4" t="s">
-        <v>348</v>
+        <v>106</v>
       </c>
       <c r="I503" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J503" s="10">
         <v>1.5</v>
@@ -22308,10 +22311,10 @@
         <v>8</v>
       </c>
       <c r="M503" s="8">
-        <v>13495.7</v>
+        <v>13996.2</v>
       </c>
       <c r="N503" s="7">
-        <v>1405802.09</v>
+        <v>1241929.47</v>
       </c>
     </row>
     <row r="504" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22327,16 +22330,16 @@
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
       <c r="F504" s="3">
-        <v>141121</v>
+        <v>111122</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H504" s="4" t="s">
-        <v>382</v>
+        <v>472</v>
       </c>
       <c r="I504" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J504" s="10">
         <v>1.5</v>
@@ -22345,13 +22348,13 @@
         <v>2</v>
       </c>
       <c r="L504" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M504" s="8">
-        <v>3599.5</v>
+        <v>9943.1</v>
       </c>
       <c r="N504" s="7">
-        <v>374947.92</v>
+        <v>1826158.1</v>
       </c>
     </row>
     <row r="505" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22367,13 +22370,13 @@
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
       <c r="F505" s="3">
-        <v>141121</v>
+        <v>131021</v>
       </c>
       <c r="G505" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H505" s="4" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="I505" s="5" t="s">
         <v>55</v>
@@ -22385,13 +22388,13 @@
         <v>2</v>
       </c>
       <c r="L505" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M505" s="8">
-        <v>4598</v>
+        <v>13495.7</v>
       </c>
       <c r="N505" s="7">
-        <v>478958.34</v>
+        <v>1405802.09</v>
       </c>
     </row>
     <row r="506" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22407,7 +22410,7 @@
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
       <c r="F506" s="3">
-        <v>151121</v>
+        <v>141121</v>
       </c>
       <c r="G506" s="2" t="s">
         <v>69</v>
@@ -22425,13 +22428,13 @@
         <v>2</v>
       </c>
       <c r="L506" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M506" s="8">
-        <v>5597.3</v>
+        <v>3599.5</v>
       </c>
       <c r="N506" s="7">
-        <v>583052.07999999996</v>
+        <v>374947.92</v>
       </c>
     </row>
     <row r="507" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22444,23 +22447,19 @@
       <c r="C507" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D507" s="3">
-        <v>100920</v>
-      </c>
-      <c r="E507" s="4" t="s">
-        <v>383</v>
-      </c>
+      <c r="D507" s="4"/>
+      <c r="E507" s="4"/>
       <c r="F507" s="3">
-        <v>161121</v>
+        <v>141121</v>
       </c>
       <c r="G507" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H507" s="4" t="s">
-        <v>244</v>
+        <v>382</v>
       </c>
       <c r="I507" s="5" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="J507" s="10">
         <v>1.5</v>
@@ -22469,13 +22468,13 @@
         <v>2</v>
       </c>
       <c r="L507" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M507" s="8">
-        <v>7880.2</v>
+        <v>4598</v>
       </c>
       <c r="N507" s="7">
-        <v>786378.29</v>
+        <v>478958.34</v>
       </c>
     </row>
     <row r="508" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22491,13 +22490,13 @@
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
       <c r="F508" s="3">
-        <v>181121</v>
+        <v>151121</v>
       </c>
       <c r="G508" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H508" s="4" t="s">
-        <v>219</v>
+        <v>382</v>
       </c>
       <c r="I508" s="5" t="s">
         <v>55</v>
@@ -22512,10 +22511,10 @@
         <v>3</v>
       </c>
       <c r="M508" s="8">
-        <v>13996.4</v>
+        <v>5597.3</v>
       </c>
       <c r="N508" s="7">
-        <v>1457958.34</v>
+        <v>583052.07999999996</v>
       </c>
     </row>
     <row r="509" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22529,22 +22528,22 @@
         <v>1</v>
       </c>
       <c r="D509" s="3">
-        <v>10216</v>
+        <v>100920</v>
       </c>
       <c r="E509" s="4" t="s">
-        <v>135</v>
+        <v>383</v>
       </c>
       <c r="F509" s="3">
-        <v>40322</v>
+        <v>161121</v>
       </c>
       <c r="G509" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H509" s="4" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="I509" s="5" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="J509" s="10">
         <v>1.5</v>
@@ -22553,13 +22552,13 @@
         <v>2</v>
       </c>
       <c r="L509" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M509" s="8">
-        <v>11031.4</v>
+        <v>7880.2</v>
       </c>
       <c r="N509" s="7">
-        <v>1049086.1399999999</v>
+        <v>786378.29</v>
       </c>
     </row>
     <row r="510" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22575,16 +22574,16 @@
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
       <c r="F510" s="3">
-        <v>80822</v>
+        <v>181121</v>
       </c>
       <c r="G510" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H510" s="4" t="s">
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="I510" s="5" t="s">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c r="J510" s="10">
         <v>1.5</v>
@@ -22596,10 +22595,10 @@
         <v>3</v>
       </c>
       <c r="M510" s="8">
-        <v>2299.4</v>
+        <v>13996.4</v>
       </c>
       <c r="N510" s="7">
-        <v>321916</v>
+        <v>1457958.34</v>
       </c>
     </row>
     <row r="511" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22612,19 +22611,23 @@
       <c r="C511" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D511" s="4"/>
-      <c r="E511" s="4"/>
+      <c r="D511" s="3">
+        <v>10216</v>
+      </c>
+      <c r="E511" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="F511" s="3">
-        <v>90922</v>
+        <v>40322</v>
       </c>
       <c r="G511" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H511" s="4" t="s">
-        <v>445</v>
+        <v>40</v>
       </c>
       <c r="I511" s="5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J511" s="10">
         <v>1.5</v>
@@ -22633,18 +22636,18 @@
         <v>2</v>
       </c>
       <c r="L511" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M511" s="8">
-        <v>8745.1</v>
+        <v>11031.4</v>
       </c>
       <c r="N511" s="7">
-        <v>1224314</v>
+        <v>1049086.1399999999</v>
       </c>
     </row>
     <row r="512" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
-        <v>384</v>
+        <v>133</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>0</v>
@@ -22655,36 +22658,36 @@
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
       <c r="F512" s="3">
-        <v>10122</v>
+        <v>80822</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>385</v>
+        <v>69</v>
       </c>
       <c r="H512" s="4" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="I512" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J512" s="3">
-        <v>2</v>
+        <v>215</v>
+      </c>
+      <c r="J512" s="10">
+        <v>1.5</v>
       </c>
       <c r="K512" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L512" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M512" s="8">
-        <v>19997.599999999999</v>
+        <v>2299.4</v>
       </c>
       <c r="N512" s="7">
-        <v>2808266.84</v>
+        <v>321916</v>
       </c>
     </row>
     <row r="513" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
-        <v>384</v>
+        <v>133</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>0</v>
@@ -22692,38 +22695,34 @@
       <c r="C513" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D513" s="3">
-        <v>70422</v>
-      </c>
-      <c r="E513" s="4" t="s">
-        <v>455</v>
-      </c>
+      <c r="D513" s="4"/>
+      <c r="E513" s="4"/>
       <c r="F513" s="3">
-        <v>121022</v>
+        <v>90922</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>456</v>
+        <v>69</v>
       </c>
       <c r="H513" s="4" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="I513" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J513" s="3">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="J513" s="10">
+        <v>1.5</v>
       </c>
       <c r="K513" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L513" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M513" s="8">
-        <v>12608.8</v>
+        <v>8745.1</v>
       </c>
       <c r="N513" s="7">
-        <v>1698871.8</v>
+        <v>1224314</v>
       </c>
     </row>
     <row r="514" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22739,13 +22738,13 @@
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
       <c r="F514" s="3">
-        <v>181021</v>
+        <v>10122</v>
       </c>
       <c r="G514" s="2" t="s">
         <v>385</v>
       </c>
       <c r="H514" s="4" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="I514" s="5" t="s">
         <v>13</v>
@@ -22757,13 +22756,13 @@
         <v>2</v>
       </c>
       <c r="L514" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M514" s="8">
-        <v>1187.5999999999999</v>
+        <v>19997.599999999999</v>
       </c>
       <c r="N514" s="7">
-        <v>154236.93</v>
+        <v>2808266.84</v>
       </c>
     </row>
     <row r="515" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22776,19 +22775,23 @@
       <c r="C515" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D515" s="4"/>
-      <c r="E515" s="4"/>
+      <c r="D515" s="3">
+        <v>70422</v>
+      </c>
+      <c r="E515" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="F515" s="3">
-        <v>251121</v>
+        <v>121022</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="H515" s="4" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="I515" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J515" s="3">
         <v>2</v>
@@ -22800,15 +22803,15 @@
         <v>3</v>
       </c>
       <c r="M515" s="8">
-        <v>16408.7</v>
+        <v>12608.8</v>
       </c>
       <c r="N515" s="7">
-        <v>2210858.91</v>
+        <v>1698871.8</v>
       </c>
     </row>
     <row r="516" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
-        <v>136</v>
+        <v>384</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>0</v>
@@ -22816,23 +22819,19 @@
       <c r="C516" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D516" s="3">
-        <v>170921</v>
-      </c>
-      <c r="E516" s="4" t="s">
-        <v>228</v>
-      </c>
+      <c r="D516" s="4"/>
+      <c r="E516" s="4"/>
       <c r="F516" s="3">
-        <v>100922</v>
+        <v>181021</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>61</v>
+        <v>385</v>
       </c>
       <c r="H516" s="4" t="s">
-        <v>436</v>
+        <v>348</v>
       </c>
       <c r="I516" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J516" s="3">
         <v>2</v>
@@ -22844,15 +22843,15 @@
         <v>3</v>
       </c>
       <c r="M516" s="8">
-        <v>4997</v>
+        <v>1187.5999999999999</v>
       </c>
       <c r="N516" s="7">
-        <v>1150327.52</v>
+        <v>154236.93</v>
       </c>
     </row>
     <row r="517" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>136</v>
+        <v>384</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>0</v>
@@ -22860,23 +22859,19 @@
       <c r="C517" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D517" s="3">
-        <v>110922</v>
-      </c>
-      <c r="E517" s="4" t="s">
-        <v>455</v>
-      </c>
+      <c r="D517" s="4"/>
+      <c r="E517" s="4"/>
       <c r="F517" s="3">
-        <v>131022</v>
+        <v>251121</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>42</v>
+        <v>385</v>
       </c>
       <c r="H517" s="4" t="s">
-        <v>457</v>
+        <v>387</v>
       </c>
       <c r="I517" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J517" s="3">
         <v>2</v>
@@ -22888,10 +22883,10 @@
         <v>3</v>
       </c>
       <c r="M517" s="8">
-        <v>1965.4</v>
+        <v>16408.7</v>
       </c>
       <c r="N517" s="7">
-        <v>321015.33</v>
+        <v>2210858.91</v>
       </c>
     </row>
     <row r="518" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22904,19 +22899,23 @@
       <c r="C518" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D518" s="4"/>
-      <c r="E518" s="4"/>
+      <c r="D518" s="3">
+        <v>170921</v>
+      </c>
+      <c r="E518" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="F518" s="3">
-        <v>150921</v>
+        <v>100922</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="H518" s="4" t="s">
-        <v>43</v>
+        <v>436</v>
       </c>
       <c r="I518" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J518" s="3">
         <v>2</v>
@@ -22927,11 +22926,11 @@
       <c r="L518" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M518" s="6">
-        <v>66.8</v>
+      <c r="M518" s="8">
+        <v>4997</v>
       </c>
       <c r="N518" s="7">
-        <v>20110.14</v>
+        <v>1150327.52</v>
       </c>
     </row>
     <row r="519" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22945,22 +22944,22 @@
         <v>1</v>
       </c>
       <c r="D519" s="3">
-        <v>100520</v>
+        <v>110922</v>
       </c>
       <c r="E519" s="4" t="s">
-        <v>137</v>
+        <v>455</v>
       </c>
       <c r="F519" s="3">
-        <v>160921</v>
+        <v>131022</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H519" s="4" t="s">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="I519" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J519" s="3">
         <v>2</v>
@@ -22972,10 +22971,10 @@
         <v>3</v>
       </c>
       <c r="M519" s="8">
-        <v>1190.4000000000001</v>
+        <v>1965.4</v>
       </c>
       <c r="N519" s="7">
-        <v>185901.54</v>
+        <v>321015.33</v>
       </c>
     </row>
     <row r="520" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -22991,13 +22990,13 @@
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
       <c r="F520" s="3">
-        <v>20122</v>
+        <v>150921</v>
       </c>
       <c r="G520" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H520" s="4" t="s">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="I520" s="5" t="s">
         <v>13</v>
@@ -23012,10 +23011,10 @@
         <v>3</v>
       </c>
       <c r="M520" s="6">
-        <v>1</v>
-      </c>
-      <c r="N520" s="14">
-        <v>380</v>
+        <v>66.8</v>
+      </c>
+      <c r="N520" s="7">
+        <v>20110.14</v>
       </c>
     </row>
     <row r="521" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -23028,16 +23027,20 @@
       <c r="C521" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D521" s="4"/>
-      <c r="E521" s="4"/>
+      <c r="D521" s="3">
+        <v>100520</v>
+      </c>
+      <c r="E521" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="F521" s="3">
-        <v>241121</v>
+        <v>160921</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H521" s="4" t="s">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="I521" s="5" t="s">
         <v>13</v>
@@ -23051,11 +23054,11 @@
       <c r="L521" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M521" s="6">
-        <v>835.5</v>
+      <c r="M521" s="8">
+        <v>1190.4000000000001</v>
       </c>
       <c r="N521" s="7">
-        <v>259840.5</v>
+        <v>185901.54</v>
       </c>
     </row>
     <row r="522" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -23071,13 +23074,13 @@
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
       <c r="F522" s="3">
-        <v>80422</v>
+        <v>20122</v>
       </c>
       <c r="G522" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H522" s="4" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="I522" s="5" t="s">
         <v>13</v>
@@ -23091,16 +23094,16 @@
       <c r="L522" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M522" s="8">
-        <v>2725.6</v>
-      </c>
-      <c r="N522" s="7">
-        <v>1042155.87</v>
+      <c r="M522" s="6">
+        <v>1</v>
+      </c>
+      <c r="N522" s="14">
+        <v>380</v>
       </c>
     </row>
     <row r="523" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>0</v>
@@ -23108,26 +23111,22 @@
       <c r="C523" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D523" s="3">
-        <v>10517</v>
-      </c>
-      <c r="E523" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="D523" s="4"/>
+      <c r="E523" s="4"/>
       <c r="F523" s="3">
-        <v>10821</v>
+        <v>241121</v>
       </c>
       <c r="G523" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H523" s="4" t="s">
-        <v>68</v>
+        <v>388</v>
       </c>
       <c r="I523" s="5" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="J523" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K523" s="4" t="s">
         <v>2</v>
@@ -23136,15 +23135,15 @@
         <v>3</v>
       </c>
       <c r="M523" s="6">
-        <v>203.2</v>
+        <v>835.5</v>
       </c>
       <c r="N523" s="7">
-        <v>70510.399999999994</v>
+        <v>259840.5</v>
       </c>
     </row>
     <row r="524" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>0</v>
@@ -23155,19 +23154,19 @@
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
       <c r="F524" s="3">
-        <v>11018</v>
+        <v>80422</v>
       </c>
       <c r="G524" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H524" s="4" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="I524" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="J524" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K524" s="4" t="s">
         <v>2</v>
@@ -23175,16 +23174,16 @@
       <c r="L524" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M524" s="6">
-        <v>537.70000000000005</v>
+      <c r="M524" s="8">
+        <v>2725.6</v>
       </c>
       <c r="N524" s="7">
-        <v>174233.02</v>
+        <v>1042155.87</v>
       </c>
     </row>
     <row r="525" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
-        <v>389</v>
+        <v>138</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>0</v>
@@ -23193,25 +23192,25 @@
         <v>1</v>
       </c>
       <c r="D525" s="3">
-        <v>50721</v>
+        <v>10517</v>
       </c>
       <c r="E525" s="4" t="s">
-        <v>337</v>
+        <v>139</v>
       </c>
       <c r="F525" s="3">
-        <v>30322</v>
+        <v>10821</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H525" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I525" s="5" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="J525" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K525" s="4" t="s">
         <v>2</v>
@@ -23219,16 +23218,16 @@
       <c r="L525" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M525" s="8">
-        <v>11243.4</v>
+      <c r="M525" s="6">
+        <v>203.2</v>
       </c>
       <c r="N525" s="7">
-        <v>1274125.69</v>
+        <v>70510.399999999994</v>
       </c>
     </row>
     <row r="526" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
-        <v>389</v>
+        <v>138</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>0</v>
@@ -23239,19 +23238,19 @@
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
       <c r="F526" s="3">
-        <v>40422</v>
+        <v>11018</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>451</v>
+        <v>10</v>
       </c>
       <c r="H526" s="4" t="s">
-        <v>390</v>
+        <v>141</v>
       </c>
       <c r="I526" s="5" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J526" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K526" s="4" t="s">
         <v>2</v>
@@ -23259,11 +23258,11 @@
       <c r="L526" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M526" s="8">
-        <v>10521.2</v>
+      <c r="M526" s="6">
+        <v>537.70000000000005</v>
       </c>
       <c r="N526" s="7">
-        <v>1061858.06</v>
+        <v>174233.02</v>
       </c>
     </row>
     <row r="527" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -23277,22 +23276,22 @@
         <v>1</v>
       </c>
       <c r="D527" s="3">
-        <v>30321</v>
+        <v>50721</v>
       </c>
       <c r="E527" s="4" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="F527" s="3">
-        <v>50922</v>
+        <v>30322</v>
       </c>
       <c r="G527" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H527" s="4" t="s">
-        <v>437</v>
+        <v>40</v>
       </c>
       <c r="I527" s="5" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="J527" s="3">
         <v>1</v>
@@ -23304,10 +23303,10 @@
         <v>3</v>
       </c>
       <c r="M527" s="8">
-        <v>2796.5</v>
+        <v>11243.4</v>
       </c>
       <c r="N527" s="7">
-        <v>328478.94</v>
+        <v>1274125.69</v>
       </c>
     </row>
     <row r="528" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -23320,23 +23319,19 @@
       <c r="C528" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D528" s="3">
-        <v>20321</v>
-      </c>
-      <c r="E528" s="4" t="s">
-        <v>291</v>
-      </c>
+      <c r="D528" s="4"/>
+      <c r="E528" s="4"/>
       <c r="F528" s="3">
-        <v>61122</v>
+        <v>40422</v>
       </c>
       <c r="G528" s="2" t="s">
         <v>451</v>
       </c>
       <c r="H528" s="4" t="s">
-        <v>459</v>
+        <v>390</v>
       </c>
       <c r="I528" s="5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J528" s="3">
         <v>1</v>
@@ -23348,10 +23343,10 @@
         <v>3</v>
       </c>
       <c r="M528" s="8">
-        <v>5466.2</v>
+        <v>10521.2</v>
       </c>
       <c r="N528" s="7">
-        <v>573006.26</v>
+        <v>1061858.06</v>
       </c>
     </row>
     <row r="529" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -23365,22 +23360,22 @@
         <v>1</v>
       </c>
       <c r="D529" s="3">
-        <v>20222</v>
+        <v>30321</v>
       </c>
       <c r="E529" s="4" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="F529" s="3">
-        <v>71122</v>
+        <v>50922</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>451</v>
+        <v>28</v>
       </c>
       <c r="H529" s="4" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="I529" s="5" t="s">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="J529" s="3">
         <v>1</v>
@@ -23389,18 +23384,18 @@
         <v>2</v>
       </c>
       <c r="L529" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M529" s="8">
-        <v>4998.2</v>
+        <v>2796.5</v>
       </c>
       <c r="N529" s="7">
-        <v>677634.47</v>
+        <v>328478.94</v>
       </c>
     </row>
     <row r="530" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
-        <v>142</v>
+        <v>389</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>0</v>
@@ -23408,22 +23403,26 @@
       <c r="C530" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D530" s="4"/>
-      <c r="E530" s="4"/>
+      <c r="D530" s="3">
+        <v>20321</v>
+      </c>
+      <c r="E530" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="F530" s="3">
-        <v>10222</v>
+        <v>61122</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="H530" s="4" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="I530" s="5" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="J530" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K530" s="4" t="s">
         <v>2</v>
@@ -23432,15 +23431,15 @@
         <v>3</v>
       </c>
       <c r="M530" s="8">
-        <v>1996.3</v>
+        <v>5466.2</v>
       </c>
       <c r="N530" s="7">
-        <v>466136.05</v>
+        <v>573006.26</v>
       </c>
     </row>
     <row r="531" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
-        <v>142</v>
+        <v>389</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>0</v>
@@ -23448,34 +23447,38 @@
       <c r="C531" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D531" s="4"/>
-      <c r="E531" s="4"/>
+      <c r="D531" s="3">
+        <v>20222</v>
+      </c>
+      <c r="E531" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="F531" s="3">
-        <v>20522</v>
+        <v>71122</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>61</v>
+        <v>451</v>
       </c>
       <c r="H531" s="4" t="s">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="I531" s="5" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="J531" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K531" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L531" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M531" s="8">
-        <v>13997.5</v>
+        <v>4998.2</v>
       </c>
       <c r="N531" s="7">
-        <v>2526268.11</v>
+        <v>677634.47</v>
       </c>
     </row>
     <row r="532" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -23488,23 +23491,19 @@
       <c r="C532" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D532" s="3">
-        <v>20520</v>
-      </c>
-      <c r="E532" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="D532" s="4"/>
+      <c r="E532" s="4"/>
       <c r="F532" s="3">
-        <v>30622</v>
+        <v>10222</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>60</v>
+        <v>391</v>
       </c>
       <c r="H532" s="4" t="s">
-        <v>145</v>
+        <v>392</v>
       </c>
       <c r="I532" s="5" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="J532" s="3">
         <v>3</v>
@@ -23516,10 +23515,10 @@
         <v>3</v>
       </c>
       <c r="M532" s="8">
-        <v>3605.4</v>
+        <v>1996.3</v>
       </c>
       <c r="N532" s="7">
-        <v>699206.96</v>
+        <v>466136.05</v>
       </c>
     </row>
     <row r="533" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -23535,16 +23534,16 @@
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
       <c r="F533" s="3">
-        <v>30720</v>
+        <v>20522</v>
       </c>
       <c r="G533" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H533" s="4" t="s">
-        <v>144</v>
+        <v>393</v>
       </c>
       <c r="I533" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J533" s="3">
         <v>3</v>
@@ -23556,10 +23555,10 @@
         <v>3</v>
       </c>
       <c r="M533" s="8">
-        <v>6993.3</v>
+        <v>13997.5</v>
       </c>
       <c r="N533" s="7">
-        <v>1507067.89</v>
+        <v>2526268.11</v>
       </c>
     </row>
     <row r="534" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -23572,19 +23571,23 @@
       <c r="C534" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D534" s="4"/>
-      <c r="E534" s="4"/>
+      <c r="D534" s="3">
+        <v>20520</v>
+      </c>
+      <c r="E534" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="F534" s="3">
-        <v>40622</v>
+        <v>30622</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>391</v>
+        <v>60</v>
       </c>
       <c r="H534" s="4" t="s">
-        <v>394</v>
+        <v>145</v>
       </c>
       <c r="I534" s="5" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="J534" s="3">
         <v>3</v>
@@ -23596,10 +23599,10 @@
         <v>3</v>
       </c>
       <c r="M534" s="8">
-        <v>4959.2</v>
+        <v>3605.4</v>
       </c>
       <c r="N534" s="7">
-        <v>1229881.6000000001</v>
+        <v>699206.96</v>
       </c>
     </row>
     <row r="535" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -23615,16 +23618,16 @@
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
       <c r="F535" s="3">
-        <v>50722</v>
+        <v>30720</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>391</v>
+        <v>61</v>
       </c>
       <c r="H535" s="4" t="s">
-        <v>410</v>
+        <v>144</v>
       </c>
       <c r="I535" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="J535" s="3">
         <v>3</v>
@@ -23636,15 +23639,15 @@
         <v>3</v>
       </c>
       <c r="M535" s="8">
-        <v>4996.2</v>
+        <v>6993.3</v>
       </c>
       <c r="N535" s="7">
-        <v>1239057.6000000001</v>
+        <v>1507067.89</v>
       </c>
     </row>
     <row r="536" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
-        <v>395</v>
+        <v>142</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>0</v>
@@ -23655,16 +23658,16 @@
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
       <c r="F536" s="3">
-        <v>10321</v>
+        <v>40622</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>28</v>
+        <v>391</v>
       </c>
       <c r="H536" s="4" t="s">
-        <v>270</v>
+        <v>394</v>
       </c>
       <c r="I536" s="5" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="J536" s="3">
         <v>3</v>
@@ -23676,15 +23679,15 @@
         <v>3</v>
       </c>
       <c r="M536" s="8">
-        <v>8996.2999999999993</v>
+        <v>4959.2</v>
       </c>
       <c r="N536" s="7">
-        <v>1119017.8999999999</v>
+        <v>1229881.6000000001</v>
       </c>
     </row>
     <row r="537" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
-        <v>395</v>
+        <v>142</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>0</v>
@@ -23695,16 +23698,16 @@
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
       <c r="F537" s="3">
-        <v>10622</v>
+        <v>50722</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>28</v>
+        <v>391</v>
       </c>
       <c r="H537" s="4" t="s">
-        <v>302</v>
+        <v>410</v>
       </c>
       <c r="I537" s="5" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="J537" s="3">
         <v>3</v>
@@ -23716,10 +23719,10 @@
         <v>3</v>
       </c>
       <c r="M537" s="8">
-        <v>4971.8999999999996</v>
+        <v>4996.2</v>
       </c>
       <c r="N537" s="7">
-        <v>459765.35</v>
+        <v>1239057.6000000001</v>
       </c>
     </row>
     <row r="538" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -23735,16 +23738,16 @@
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
       <c r="F538" s="3">
-        <v>10820</v>
+        <v>10321</v>
       </c>
       <c r="G538" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H538" s="4" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I538" s="5" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="J538" s="3">
         <v>3</v>
@@ -23756,10 +23759,10 @@
         <v>3</v>
       </c>
       <c r="M538" s="8">
-        <v>2539.8000000000002</v>
+        <v>8996.2999999999993</v>
       </c>
       <c r="N538" s="7">
-        <v>307150.56</v>
+        <v>1119017.8999999999</v>
       </c>
     </row>
     <row r="539" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -23775,16 +23778,16 @@
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
       <c r="F539" s="3">
-        <v>20820</v>
+        <v>10622</v>
       </c>
       <c r="G539" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H539" s="4" t="s">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="I539" s="5" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="J539" s="3">
         <v>3</v>
@@ -23796,10 +23799,10 @@
         <v>3</v>
       </c>
       <c r="M539" s="8">
-        <v>1048.5</v>
+        <v>4971.8999999999996</v>
       </c>
       <c r="N539" s="7">
-        <v>127176.22</v>
+        <v>459765.35</v>
       </c>
     </row>
     <row r="540" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -23815,13 +23818,13 @@
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
       <c r="F540" s="3">
-        <v>30820</v>
+        <v>10820</v>
       </c>
       <c r="G540" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H540" s="4" t="s">
-        <v>397</v>
+        <v>12</v>
       </c>
       <c r="I540" s="5" t="s">
         <v>33</v>
@@ -23836,9 +23839,89 @@
         <v>3</v>
       </c>
       <c r="M540" s="8">
+        <v>2539.8000000000002</v>
+      </c>
+      <c r="N540" s="7">
+        <v>307150.56</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D541" s="4"/>
+      <c r="E541" s="4"/>
+      <c r="F541" s="3">
+        <v>20820</v>
+      </c>
+      <c r="G541" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H541" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="I541" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J541" s="3">
+        <v>3</v>
+      </c>
+      <c r="K541" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L541" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M541" s="8">
+        <v>1048.5</v>
+      </c>
+      <c r="N541" s="7">
+        <v>127176.22</v>
+      </c>
+    </row>
+    <row r="542" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D542" s="4"/>
+      <c r="E542" s="4"/>
+      <c r="F542" s="3">
+        <v>30820</v>
+      </c>
+      <c r="G542" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H542" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="I542" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J542" s="3">
+        <v>3</v>
+      </c>
+      <c r="K542" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L542" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M542" s="8">
         <v>2039.7</v>
       </c>
-      <c r="N540" s="7">
+      <c r="N542" s="7">
         <v>251348.6</v>
       </c>
     </row>

--- a/raw_mat_bad_stock.xlsx
+++ b/raw_mat_bad_stock.xlsx
@@ -2718,10 +2718,10 @@
         <v>3</v>
       </c>
       <c r="M17" s="6">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="N17" s="7">
-        <v>48639.16</v>
+        <v>48541.88</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -7213,11 +7213,11 @@
       <c r="L128" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M128" s="8">
-        <v>1499.5</v>
+      <c r="M128" s="6">
+        <v>825.1</v>
       </c>
       <c r="N128" s="7">
-        <v>256325.75</v>
+        <v>141043.26</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -7334,10 +7334,10 @@
         <v>3</v>
       </c>
       <c r="M131" s="8">
-        <v>4147.3</v>
+        <v>2382.1</v>
       </c>
       <c r="N131" s="7">
-        <v>711568.88</v>
+        <v>408706.44</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
